--- a/auswertungen/olympiaden.xlsx
+++ b/auswertungen/olympiaden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Trinkspiel-Olympiade\auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F455E4-192B-49F6-A977-1CCC6146E285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60587A18-EC6C-43D1-B43A-5B61111B79E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="725" firstSheet="1" activeTab="2" xr2:uid="{E72825E3-9DF5-4268-BFEE-43D96429192B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="725" activeTab="6" xr2:uid="{E72825E3-9DF5-4268-BFEE-43D96429192B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summe_Punkte" sheetId="8" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Olympiade_5" sheetId="4" r:id="rId6"/>
     <sheet name="Olympiade_6" sheetId="3" r:id="rId7"/>
     <sheet name="Database" sheetId="10" r:id="rId8"/>
+    <sheet name="Medaillen" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -172,6 +173,75 @@
   </si>
   <si>
     <t>Gesamtpunkte</t>
+  </si>
+  <si>
+    <t>Flunkyball-Rank</t>
+  </si>
+  <si>
+    <t>Beerpong-Rank</t>
+  </si>
+  <si>
+    <t>Flipcup-Rank</t>
+  </si>
+  <si>
+    <t>Flunkyball_1st</t>
+  </si>
+  <si>
+    <t>Flunkyball_2nd</t>
+  </si>
+  <si>
+    <t>Flunkyball_3rd</t>
+  </si>
+  <si>
+    <t>Beerpong_1st</t>
+  </si>
+  <si>
+    <t>Beerpong_2nd</t>
+  </si>
+  <si>
+    <t>Beerpong_3rd</t>
+  </si>
+  <si>
+    <t>Flipcup_1st</t>
+  </si>
+  <si>
+    <t>Flipcup_2nd</t>
+  </si>
+  <si>
+    <t>Flipcup_3rd</t>
+  </si>
+  <si>
+    <t>Platz_1st</t>
+  </si>
+  <si>
+    <t>Platz_2nd</t>
+  </si>
+  <si>
+    <t>Platz_3rd</t>
+  </si>
+  <si>
+    <t>Gesamt_1st</t>
+  </si>
+  <si>
+    <t>Gesamt_2nd</t>
+  </si>
+  <si>
+    <t>Gesamt_3rd</t>
+  </si>
+  <si>
+    <t>Flunkyball_Gesamt</t>
+  </si>
+  <si>
+    <t>Beerpong_Gesamt</t>
+  </si>
+  <si>
+    <t>Flipcup_Gesamt</t>
+  </si>
+  <si>
+    <t>Gesamt_Gesamt</t>
+  </si>
+  <si>
+    <t>Platz_Gesamt</t>
   </si>
 </sst>
 </file>
@@ -625,7 +695,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,10 +1456,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6299E3FC-09BE-449C-8523-A09CE7F30075}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,10 +1468,11 @@
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1417,11 +1488,20 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1438,10 +1518,19 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1458,10 +1547,19 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1478,10 +1576,19 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1498,10 +1605,19 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1518,10 +1634,19 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1538,10 +1663,19 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1558,10 +1692,19 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1578,6 +1721,15 @@
         <v>20</v>
       </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
     </row>
@@ -1591,7 +1743,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1852,10 +2004,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034BA478-AD35-46A9-B2BB-75056EBE9942}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,10 +2016,11 @@
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1883,11 +2036,20 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1904,10 +2066,19 @@
         <v>50</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1924,10 +2095,19 @@
         <v>50</v>
       </c>
       <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1944,10 +2124,19 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1964,10 +2153,19 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1984,10 +2182,19 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2004,10 +2211,19 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2024,10 +2240,19 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2044,10 +2269,19 @@
         <v>10</v>
       </c>
       <c r="F9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2064,10 +2298,19 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2084,6 +2327,15 @@
         <v>30</v>
       </c>
       <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
@@ -2095,10 +2347,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95564DFD-8163-40D8-959E-2E8240BA03F7}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,10 +2359,11 @@
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2126,11 +2379,20 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2147,10 +2409,19 @@
         <v>20</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2167,10 +2438,19 @@
         <v>20</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2187,10 +2467,19 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2207,10 +2496,19 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2227,10 +2525,19 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2247,10 +2554,19 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2267,10 +2583,19 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2287,10 +2612,19 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2307,10 +2641,19 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2327,6 +2670,15 @@
         <v>30</v>
       </c>
       <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
@@ -2338,10 +2690,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E9E3E1-6591-4884-A564-FFC9A93C3162}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="H1" activeCellId="2" sqref="F1 G1 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,10 +2702,11 @@
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2369,11 +2722,20 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2390,10 +2752,19 @@
         <v>80</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2410,10 +2781,19 @@
         <v>80</v>
       </c>
       <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2430,10 +2810,19 @@
         <v>20</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2450,10 +2839,19 @@
         <v>20</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2470,10 +2868,19 @@
         <v>60</v>
       </c>
       <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2490,10 +2897,19 @@
         <v>60</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2510,10 +2926,19 @@
         <v>50</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2530,10 +2955,19 @@
         <v>50</v>
       </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2550,10 +2984,19 @@
         <v>70</v>
       </c>
       <c r="F10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2570,10 +3013,19 @@
         <v>70</v>
       </c>
       <c r="F11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2590,10 +3042,19 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2610,10 +3071,19 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2630,10 +3100,19 @@
         <v>30</v>
       </c>
       <c r="F14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2650,10 +3129,19 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2670,10 +3158,19 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2690,6 +3187,15 @@
         <v>10</v>
       </c>
       <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
         <v>10</v>
       </c>
     </row>
@@ -2701,10 +3207,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05D82DC-6185-4E68-A100-03A0628005EE}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,10 +3219,11 @@
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2732,11 +3239,20 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2753,10 +3269,19 @@
         <v>80</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2773,10 +3298,19 @@
         <v>80</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2793,10 +3327,19 @@
         <v>40</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2813,10 +3356,19 @@
         <v>40</v>
       </c>
       <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2833,10 +3385,19 @@
         <v>70</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2853,10 +3414,19 @@
         <v>70</v>
       </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2873,10 +3443,19 @@
         <v>60</v>
       </c>
       <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2893,10 +3472,19 @@
         <v>60</v>
       </c>
       <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2913,10 +3501,19 @@
         <v>90</v>
       </c>
       <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2933,10 +3530,19 @@
         <v>90</v>
       </c>
       <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2953,10 +3559,19 @@
         <v>30</v>
       </c>
       <c r="F12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -2973,10 +3588,19 @@
         <v>30</v>
       </c>
       <c r="F13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2993,10 +3617,19 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -3013,10 +3646,19 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3033,10 +3675,19 @@
         <v>10</v>
       </c>
       <c r="F16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -3053,10 +3704,19 @@
         <v>10</v>
       </c>
       <c r="F17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
@@ -3073,10 +3733,19 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3093,6 +3762,15 @@
         <v>20</v>
       </c>
       <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
         <v>10</v>
       </c>
     </row>
@@ -4612,4 +5290,2732 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634A4A22-0BF6-45CC-B5EE-AD2ADC565BF6}">
+  <dimension ref="A1:V31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(C2,D2,E2)</f>
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>SUM(G2,H2,I2)</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>SUM(K2,L2,M2)</f>
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(O2,P2,R2)</f>
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,3)</f>
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <f>SUM(C2,G2,K2,O2)</f>
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <f>SUM(D2,H2,L2,P2)</f>
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <f>SUM(E2,I2,M2,R2)</f>
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <f>SUM(S2,T2,U2)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUM(C3,D3,E3)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,3)</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>SUM(G3,H3,I3)</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>SUM(K3,L3,M3)</f>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,1)</f>
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(O3,P3,R3)</f>
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S31" si="0">SUM(C3,G3,K3,O3)</f>
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T31" si="1">SUM(D3,H3,L3,P3)</f>
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U31" si="2">SUM(E3,I3,M3,R3)</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V31" si="3">SUM(S3,T3,U3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,3)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>SUM(C4,D4,E4)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>SUM(G4,H4,I4)</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,1)</f>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>SUM(K4,L4,M4)</f>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,1)</f>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>SUM(O4,P4,R4)</f>
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5,D5,E5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>SUM(G5,H5,I5)</f>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUM(K5,L5,M5)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(O5,P5,R5)</f>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>SUM(C6,D6,E6)</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>SUM(G6,H6,I6)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>SUM(K6,L6,M6)</f>
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,1)</f>
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(O6,P6,R6)</f>
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C7,D7,E7)</f>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>SUM(G7,H7,I7)</f>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>SUM(K7,L7,M7)</f>
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(O7,P7,R7)</f>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>SUM(C8,D8,E8)</f>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G8,H8,I8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,2)</f>
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>SUM(K8,L8,M8)</f>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f>SUM(O8,P8,R8)</f>
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C9,D9,E9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>SUM(G9,H9,I9)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>SUM(K9,L9,M9)</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(O9,P9,R9)</f>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>SUM(C10,D10,E10)</f>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>SUM(G10,H10,I10)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>SUM(K10,L10,M10)</f>
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(O10,P10,R10)</f>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>SUM(C11,D11,E11)</f>
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>SUM(G11,H11,I11)</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>SUM(K11,L11,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(O11,P11,R11)</f>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>SUM(C12,D12,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>SUM(G12,H12,I12)</f>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>SUM(K12,L12,M12)</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(O12,P12,R12)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>SUM(C13,D13,E13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>SUM(G13,H13,I13)</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>SUM(K13,L13,M13)</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(O13,P13,R13)</f>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f>SUM(C14,D14,E14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,1)</f>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>SUM(G14,H14,I14)</f>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f>SUM(K14,L14,M14)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(O14,P14,R14)</f>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>SUM(C15,D15,E15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>SUM(G15,H15,I15)</f>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f>SUM(K15,L15,M15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f>SUM(O15,P15,R15)</f>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>SUM(C16,D16,E16)</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>SUM(G16,H16,I16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>SUM(K16,L16,M16)</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f>SUM(O16,P16,R16)</f>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>SUM(C17,D17,E17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>SUM(G17,H17,I17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>SUM(K17,L17,M17)</f>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f>SUM(O17,P17,R17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>SUM(C18,D18,E18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>SUM(G18,H18,I18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f>SUM(K18,L18,M18)</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(O18,P18,R18)</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>SUM(C19,D19,E19)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>SUM(G19,H19,I19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f>SUM(K19,L19,M19)</f>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(O19,P19,R19)</f>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>SUM(C20,D20,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>SUM(G20,H20,I20)</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f>SUM(K20,L20,M20)</f>
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f>SUM(O20,P20,R20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>SUM(C21,D21,E21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,2)</f>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>SUM(G21,H21,I21)</f>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f>SUM(K21,L21,M21)</f>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>SUM(O21,P21,R21)</f>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f>SUM(C22,D22,E22)</f>
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>SUM(G22,H22,I22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>SUM(K22,L22,M22)</f>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f>SUM(O22,P22,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>SUM(C23,D23,E23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>SUM(G23,H23,I23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f>SUM(K23,L23,M23)</f>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>SUM(O23,P23,R23)</f>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f>SUM(C24,D24,E24)</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>SUM(G24,H24,I24)</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f>SUM(K24,L24,M24)</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(O24,P24,R24)</f>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f>SUM(C25,D25,E25)</f>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>SUM(G25,H25,I25)</f>
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>SUM(K25,L25,M25)</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(O25,P25,R25)</f>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>SUM(C26,D26,E26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>SUM(G26,H26,I26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>SUM(K26,L26,M26)</f>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(O26,P26,R26)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>SUM(C27,D27,E27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>SUM(G27,H27,I27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f>SUM(K27,L27,M27)</f>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>SUM(O27,P27,R27)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>SUM(C28,D28,E28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>SUM(G28,H28,I28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>SUM(K28,L28,M28)</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>SUM(O28,P28,R28)</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>SUM(C29,D29,E29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>SUM(G29,H29,I29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>SUM(K29,L29,M29)</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>SUM(O29,P29,R29)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f>SUM(C30,D30,E30)</f>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>SUM(G30,H30,I30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f>SUM(K30,L30,M30)</f>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>SUM(O30,P30,R30)</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>SUM(C31,D31,E31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>SUM(G31,H31,I31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>SUM(K31,L31,M31)</f>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f>SUM(O31,P31,R31)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/auswertungen/olympiaden.xlsx
+++ b/auswertungen/olympiaden.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Trinkspiel-Olympiade\auswertungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60587A18-EC6C-43D1-B43A-5B61111B79E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD39D92-9429-455D-BE84-0AFC7337C224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="725" activeTab="6" xr2:uid="{E72825E3-9DF5-4268-BFEE-43D96429192B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="725" activeTab="7" xr2:uid="{E72825E3-9DF5-4268-BFEE-43D96429192B}"/>
   </bookViews>
   <sheets>
     <sheet name="Summe_Punkte" sheetId="8" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -243,6 +243,24 @@
   <si>
     <t>Platz_Gesamt</t>
   </si>
+  <si>
+    <t>Disziplin_Durchschnitt</t>
+  </si>
+  <si>
+    <t>Durchschnittspunkte_Gesamt</t>
+  </si>
+  <si>
+    <t>Flunkyball_Platzierung_Durchschnitt</t>
+  </si>
+  <si>
+    <t>Beerpong_Platzierung_Durchschnitt</t>
+  </si>
+  <si>
+    <t>Flipcup_Platzierung_Durchschnitt</t>
+  </si>
+  <si>
+    <t>Gesamt_Platzierung_Durchschnitt</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,20 +348,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -360,7 +527,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B72B9BBF-7243-498A-AA51-724090A7647C}" name="Olympiaden_Data" displayName="Olympiaden_Data" ref="A1:F74" totalsRowShown="0">
   <autoFilter ref="A1:F74" xr:uid="{B72B9BBF-7243-498A-AA51-724090A7647C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F74">
-    <sortCondition ref="B1:B74"/>
+    <sortCondition ref="A1:A74"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{65FB87C8-2697-4D7B-BEE5-EA2B71F75940}" name="Name"/>
@@ -369,6 +536,147 @@
     <tableColumn id="4" xr3:uid="{5557E9F2-FCE0-4B8B-91C9-12B49F0BEFDD}" name="Beerpong"/>
     <tableColumn id="5" xr3:uid="{DA777C2E-D1B7-4162-A9E2-1354895E6A02}" name="Flipcup"/>
     <tableColumn id="6" xr3:uid="{EE576E72-1362-45DB-8F29-7F4D6FBEFAA0}" name="Gesamtpunkte"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{58B93B16-86D7-4BF8-92FC-E6D4DD34C95B}" name="Summe_Punkte" displayName="Summe_Punkte" ref="J3:P33" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="8">
+  <autoFilter ref="J3:P33" xr:uid="{58B93B16-86D7-4BF8-92FC-E6D4DD34C95B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J4:P33">
+    <sortCondition ref="J3:J33"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{531E6CAE-BAD7-4BD6-8453-A923F752E873}" name="Platzierung"/>
+    <tableColumn id="2" xr3:uid="{CEAE229C-B084-4ED2-B742-86F10B99F402}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{ADC166C7-1244-44B3-B982-7B840237CE5B}" name="Flunkyball">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!C:C,Database!A:A,K4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E65550F7-B166-4B0D-889A-28CC6646114D}" name="Beerpong">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!D:D,Database!A:A,K4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7F70566A-3838-4320-851B-4BD45C70AE5E}" name="Flipcup">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!E:E,Database!A:A,K4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D3A6B544-60A1-41A6-931A-CE83ABAC6588}" name="Gesamtpunkte">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!F:F,Database!A:A,K4)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C3995626-DD18-42CB-A3E9-445447787456}" name="Disziplin_Durchschnitt">
+      <calculatedColumnFormula>AVERAGE(L4,M4,N4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1D856587-4410-4257-B9B7-E7A2E0375CEA}" name="Summe_Punkte5" displayName="Summe_Punkte5" ref="J37:Q67" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+  <autoFilter ref="J37:Q67" xr:uid="{1D856587-4410-4257-B9B7-E7A2E0375CEA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J38:Q67">
+    <sortCondition ref="J3:J33"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{9777F4A4-D01E-4F1F-913A-419D86A9A9BB}" name="Platzierung"/>
+    <tableColumn id="2" xr3:uid="{EA3A9C76-D08D-4038-8741-3446C6EC7A4B}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{8859DAA8-A3D1-4323-817F-FDAEA8AF37E4}" name="Flunkyball_Platzierung_Durchschnitt">
+      <calculatedColumnFormula>AVERAGE(IFERROR(VLOOKUP($K38,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_6!$B:$F,5,FALSE),""))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{D8E9B1E5-FFBD-43FE-A28C-7B4FA54D1A7A}" name="Beerpong_Platzierung_Durchschnitt">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!D:D,Database!A:A,K38)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A2E52B68-10CF-4820-989E-79C33DA91834}" name="Flipcup_Platzierung_Durchschnitt">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!E:E,Database!A:A,K38)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="29" xr3:uid="{FB3A08A6-0E8F-4760-BFE9-33366E6FD78A}" name="Gesamt_Platzierung_Durchschnitt"/>
+    <tableColumn id="6" xr3:uid="{9BAB33D6-040C-4E32-AC5A-24FB0F1E20F6}" name="Gesamtpunkte">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!F:F,Database!A:A,K38)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D9FE1401-C202-44BC-8B21-9DDFE543E477}" name="Disziplin_Durchschnitt">
+      <calculatedColumnFormula>AVERAGE(L4,M4,N4)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{259AB2F9-AB91-4ABE-A2A9-F6402274A5EA}" name="Table3" displayName="Table3" ref="A1:X31" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+  <autoFilter ref="A1:X31" xr:uid="{259AB2F9-AB91-4ABE-A2A9-F6402274A5EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X31">
+    <sortCondition descending="1" ref="O2:O31"/>
+    <sortCondition descending="1" ref="P2:P31"/>
+    <sortCondition descending="1" ref="Q2:Q31"/>
+  </sortState>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{743C55E2-E59C-4C72-A412-32A5F6E7A57B}" name="Platzierung"/>
+    <tableColumn id="2" xr3:uid="{C377E369-AB37-435B-91FF-27109DAFFF5B}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{3DDDE55A-5C33-47EA-B621-3F853E9AE180}" name="Flunkyball_1st">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{93F0C80E-04F3-4CA1-AB00-9E5ED9A5274A}" name="Flunkyball_2nd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9A88C1FE-311C-4937-822D-75B8987B8E62}" name="Flunkyball_3rd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{39D53250-1D68-48DE-86BB-29B2D65646C3}" name="Flunkyball_Gesamt">
+      <calculatedColumnFormula>SUM(C2,D2,E2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E99F4EE3-F002-48F6-997B-2049BE96BE12}" name="Beerpong_1st">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{AA7E57F6-7BDD-49A3-ABCF-D4B56E6D5834}" name="Beerpong_2nd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5A3CB3B9-FC36-404A-8CBC-40D41DA3B494}" name="Beerpong_3rd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{591488F5-DA4B-4595-8352-3B02CB706136}" name="Beerpong_Gesamt">
+      <calculatedColumnFormula>SUM(G2,H2,I2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{D7555099-453B-4B7C-AF20-CB4A60AE3A94}" name="Flipcup_1st">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{8E6F69B9-5C74-478A-9F9D-57B805CCD3E0}" name="Flipcup_2nd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D4161A30-95A4-4B5B-9678-1BE070D3F195}" name="Flipcup_3rd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{4220E482-79F3-4F31-9761-DA26B8FC4915}" name="Flipcup_Gesamt">
+      <calculatedColumnFormula>SUM(K2,L2,M2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{06ED1C5F-3DFF-4467-8422-25C0C0C9BB88}" name="Platz_1st">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{33403E6B-A577-4187-B503-32F0B8B0C4AA}" name="Platz_2nd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{E2788899-8F8B-41D8-A1FA-52DF0EAB887C}" name="Platz_3rd">
+      <calculatedColumnFormula>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,3)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{7528BF67-B2A6-4388-8295-966BEED4437B}" name="Platz_Gesamt">
+      <calculatedColumnFormula>SUM(O2,P2,Q2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{D93396BC-348D-4142-85E9-21CBE5F5DD35}" name="Gesamt_1st">
+      <calculatedColumnFormula>SUM(C2,G2,K2,O2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{51E750B1-F011-49D4-88FB-DBE0430344A6}" name="Gesamt_2nd">
+      <calculatedColumnFormula>SUM(D2,H2,L2,P2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{791B4CCD-1F61-48A7-91C3-A79A34FDE9C0}" name="Gesamt_3rd">
+      <calculatedColumnFormula>SUM(E2,I2,M2,Q2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{87D23BD6-4B1B-4F3A-9F51-1E2921E48DE3}" name="Gesamt_Gesamt">
+      <calculatedColumnFormula>SUM(S2,T2,U2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{F2F02403-1FFA-4FBC-846A-251953E06914}" name="Gesamtpunkte">
+      <calculatedColumnFormula>SUMIFS(Database!B:B,Database!A:A,B2) + SUMIFS(Database!F:F,Database!A:A,B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{D1D2B17C-4A4D-4C96-99B0-94BB22760F45}" name="Durchschnittspunkte_Gesamt">
+      <calculatedColumnFormula>AVERAGE(Database!L4,Database!M4,Database!N4)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -695,7 +1003,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,19 +1041,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>SUMIFS(Database!B:B,Database!A:A,B2) + SUMIFS(Database!C:C,Database!A:A,B2)</f>
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D2">
         <f>SUMIFS(Database!B:B,Database!A:A,B2) + SUMIFS(Database!D:D,Database!A:A,B2)</f>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E2">
         <f>SUMIFS(Database!B:B,Database!A:A,B2) + SUMIFS(Database!E:E,Database!A:A,B2)</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="F2">
         <f>SUMIFS(Database!B:B,Database!A:A,B2) + SUMIFS(Database!F:F,Database!A:A,B2)</f>
@@ -757,19 +1065,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <f>SUMIFS(Database!B:B,Database!A:A,B3) + SUMIFS(Database!C:C,Database!A:A,B3)</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D3">
         <f>SUMIFS(Database!B:B,Database!A:A,B3) + SUMIFS(Database!D:D,Database!A:A,B3)</f>
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="E3">
         <f>SUMIFS(Database!B:B,Database!A:A,B3) + SUMIFS(Database!E:E,Database!A:A,B3)</f>
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <f>SUMIFS(Database!B:B,Database!A:A,B3) + SUMIFS(Database!F:F,Database!A:A,B3)</f>
@@ -785,15 +1093,15 @@
       </c>
       <c r="C4">
         <f>SUMIFS(Database!B:B,Database!A:A,B4) + SUMIFS(Database!C:C,Database!A:A,B4)</f>
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D4">
         <f>SUMIFS(Database!B:B,Database!A:A,B4) + SUMIFS(Database!D:D,Database!A:A,B4)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <f>SUMIFS(Database!B:B,Database!A:A,B4) + SUMIFS(Database!E:E,Database!A:A,B4)</f>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <f>SUMIFS(Database!B:B,Database!A:A,B4) + SUMIFS(Database!F:F,Database!A:A,B4)</f>
@@ -805,23 +1113,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <f>SUMIFS(Database!B:B,Database!A:A,B5) + SUMIFS(Database!C:C,Database!A:A,B5)</f>
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="D5">
         <f>SUMIFS(Database!B:B,Database!A:A,B5) + SUMIFS(Database!D:D,Database!A:A,B5)</f>
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <f>SUMIFS(Database!B:B,Database!A:A,B5) + SUMIFS(Database!E:E,Database!A:A,B5)</f>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="F5">
         <f>SUMIFS(Database!B:B,Database!A:A,B5) + SUMIFS(Database!F:F,Database!A:A,B5)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,23 +1137,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f>SUMIFS(Database!B:B,Database!A:A,B6) + SUMIFS(Database!C:C,Database!A:A,B6)</f>
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D6">
         <f>SUMIFS(Database!B:B,Database!A:A,B6) + SUMIFS(Database!D:D,Database!A:A,B6)</f>
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="E6">
         <f>SUMIFS(Database!B:B,Database!A:A,B6) + SUMIFS(Database!E:E,Database!A:A,B6)</f>
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <f>SUMIFS(Database!B:B,Database!A:A,B6) + SUMIFS(Database!F:F,Database!A:A,B6)</f>
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,15 +1165,15 @@
       </c>
       <c r="C7">
         <f>SUMIFS(Database!B:B,Database!A:A,B7) + SUMIFS(Database!C:C,Database!A:A,B7)</f>
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D7">
         <f>SUMIFS(Database!B:B,Database!A:A,B7) + SUMIFS(Database!D:D,Database!A:A,B7)</f>
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <f>SUMIFS(Database!B:B,Database!A:A,B7) + SUMIFS(Database!E:E,Database!A:A,B7)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <f>SUMIFS(Database!B:B,Database!A:A,B7) + SUMIFS(Database!F:F,Database!A:A,B7)</f>
@@ -929,15 +1237,15 @@
       </c>
       <c r="C10">
         <f>SUMIFS(Database!B:B,Database!A:A,B10) + SUMIFS(Database!C:C,Database!A:A,B10)</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <f>SUMIFS(Database!B:B,Database!A:A,B10) + SUMIFS(Database!D:D,Database!A:A,B10)</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="E10">
         <f>SUMIFS(Database!B:B,Database!A:A,B10) + SUMIFS(Database!E:E,Database!A:A,B10)</f>
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <f>SUMIFS(Database!B:B,Database!A:A,B10) + SUMIFS(Database!F:F,Database!A:A,B10)</f>
@@ -977,15 +1285,15 @@
       </c>
       <c r="C12">
         <f>SUMIFS(Database!B:B,Database!A:A,B12) + SUMIFS(Database!C:C,Database!A:A,B12)</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <f>SUMIFS(Database!B:B,Database!A:A,B12) + SUMIFS(Database!D:D,Database!A:A,B12)</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E12">
         <f>SUMIFS(Database!B:B,Database!A:A,B12) + SUMIFS(Database!E:E,Database!A:A,B12)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <f>SUMIFS(Database!B:B,Database!A:A,B12) + SUMIFS(Database!F:F,Database!A:A,B12)</f>
@@ -997,19 +1305,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <f>SUMIFS(Database!B:B,Database!A:A,B13) + SUMIFS(Database!C:C,Database!A:A,B13)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D13">
         <f>SUMIFS(Database!B:B,Database!A:A,B13) + SUMIFS(Database!D:D,Database!A:A,B13)</f>
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="E13">
         <f>SUMIFS(Database!B:B,Database!A:A,B13) + SUMIFS(Database!E:E,Database!A:A,B13)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <f>SUMIFS(Database!B:B,Database!A:A,B13) + SUMIFS(Database!F:F,Database!A:A,B13)</f>
@@ -1021,19 +1329,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f>SUMIFS(Database!B:B,Database!A:A,B14) + SUMIFS(Database!C:C,Database!A:A,B14)</f>
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <f>SUMIFS(Database!B:B,Database!A:A,B14) + SUMIFS(Database!D:D,Database!A:A,B14)</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <f>SUMIFS(Database!B:B,Database!A:A,B14) + SUMIFS(Database!E:E,Database!A:A,B14)</f>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F14">
         <f>SUMIFS(Database!B:B,Database!A:A,B14) + SUMIFS(Database!F:F,Database!A:A,B14)</f>
@@ -1073,15 +1381,15 @@
       </c>
       <c r="C16">
         <f>SUMIFS(Database!B:B,Database!A:A,B16) + SUMIFS(Database!C:C,Database!A:A,B16)</f>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D16">
         <f>SUMIFS(Database!B:B,Database!A:A,B16) + SUMIFS(Database!D:D,Database!A:A,B16)</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E16">
         <f>SUMIFS(Database!B:B,Database!A:A,B16) + SUMIFS(Database!E:E,Database!A:A,B16)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <f>SUMIFS(Database!B:B,Database!A:A,B16) + SUMIFS(Database!F:F,Database!A:A,B16)</f>
@@ -1117,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <f>SUMIFS(Database!B:B,Database!A:A,B18) + SUMIFS(Database!C:C,Database!A:A,B18)</f>
@@ -1125,11 +1433,11 @@
       </c>
       <c r="D18">
         <f>SUMIFS(Database!B:B,Database!A:A,B18) + SUMIFS(Database!D:D,Database!A:A,B18)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <f>SUMIFS(Database!B:B,Database!A:A,B18) + SUMIFS(Database!E:E,Database!A:A,B18)</f>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <f>SUMIFS(Database!B:B,Database!A:A,B18) + SUMIFS(Database!F:F,Database!A:A,B18)</f>
@@ -1141,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <f>SUMIFS(Database!B:B,Database!A:A,B19) + SUMIFS(Database!C:C,Database!A:A,B19)</f>
@@ -1149,11 +1457,11 @@
       </c>
       <c r="D19">
         <f>SUMIFS(Database!B:B,Database!A:A,B19) + SUMIFS(Database!D:D,Database!A:A,B19)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <f>SUMIFS(Database!B:B,Database!A:A,B19) + SUMIFS(Database!E:E,Database!A:A,B19)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <f>SUMIFS(Database!B:B,Database!A:A,B19) + SUMIFS(Database!F:F,Database!A:A,B19)</f>
@@ -1169,15 +1477,15 @@
       </c>
       <c r="C20">
         <f>SUMIFS(Database!B:B,Database!A:A,B20) + SUMIFS(Database!C:C,Database!A:A,B20)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <f>SUMIFS(Database!B:B,Database!A:A,B20) + SUMIFS(Database!D:D,Database!A:A,B20)</f>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E20">
         <f>SUMIFS(Database!B:B,Database!A:A,B20) + SUMIFS(Database!E:E,Database!A:A,B20)</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F20">
         <f>SUMIFS(Database!B:B,Database!A:A,B20) + SUMIFS(Database!F:F,Database!A:A,B20)</f>
@@ -1213,19 +1521,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <f>SUMIFS(Database!B:B,Database!A:A,B22) + SUMIFS(Database!C:C,Database!A:A,B22)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <f>SUMIFS(Database!B:B,Database!A:A,B22) + SUMIFS(Database!D:D,Database!A:A,B22)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <f>SUMIFS(Database!B:B,Database!A:A,B22) + SUMIFS(Database!E:E,Database!A:A,B22)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <f>SUMIFS(Database!B:B,Database!A:A,B22) + SUMIFS(Database!F:F,Database!A:A,B22)</f>
@@ -1237,19 +1545,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <f>SUMIFS(Database!B:B,Database!A:A,B23) + SUMIFS(Database!C:C,Database!A:A,B23)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <f>SUMIFS(Database!B:B,Database!A:A,B23) + SUMIFS(Database!D:D,Database!A:A,B23)</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <f>SUMIFS(Database!B:B,Database!A:A,B23) + SUMIFS(Database!E:E,Database!A:A,B23)</f>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F23">
         <f>SUMIFS(Database!B:B,Database!A:A,B23) + SUMIFS(Database!F:F,Database!A:A,B23)</f>
@@ -1261,19 +1569,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <f>SUMIFS(Database!B:B,Database!A:A,B24) + SUMIFS(Database!C:C,Database!A:A,B24)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D24">
         <f>SUMIFS(Database!B:B,Database!A:A,B24) + SUMIFS(Database!D:D,Database!A:A,B24)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <f>SUMIFS(Database!B:B,Database!A:A,B24) + SUMIFS(Database!E:E,Database!A:A,B24)</f>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F24">
         <f>SUMIFS(Database!B:B,Database!A:A,B24) + SUMIFS(Database!F:F,Database!A:A,B24)</f>
@@ -1285,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <f>SUMIFS(Database!B:B,Database!A:A,B25) + SUMIFS(Database!C:C,Database!A:A,B25)</f>
@@ -1293,11 +1601,11 @@
       </c>
       <c r="D25">
         <f>SUMIFS(Database!B:B,Database!A:A,B25) + SUMIFS(Database!D:D,Database!A:A,B25)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <f>SUMIFS(Database!B:B,Database!A:A,B25) + SUMIFS(Database!E:E,Database!A:A,B25)</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <f>SUMIFS(Database!B:B,Database!A:A,B25) + SUMIFS(Database!F:F,Database!A:A,B25)</f>
@@ -1333,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C27">
         <f>SUMIFS(Database!B:B,Database!A:A,B27) + SUMIFS(Database!C:C,Database!A:A,B27)</f>
@@ -1345,7 +1653,7 @@
       </c>
       <c r="E27">
         <f>SUMIFS(Database!B:B,Database!A:A,B27) + SUMIFS(Database!E:E,Database!A:A,B27)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F27">
         <f>SUMIFS(Database!B:B,Database!A:A,B27) + SUMIFS(Database!F:F,Database!A:A,B27)</f>
@@ -1357,7 +1665,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <f>SUMIFS(Database!B:B,Database!A:A,B28) + SUMIFS(Database!C:C,Database!A:A,B28)</f>
@@ -1365,11 +1673,11 @@
       </c>
       <c r="D28">
         <f>SUMIFS(Database!B:B,Database!A:A,B28) + SUMIFS(Database!D:D,Database!A:A,B28)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <f>SUMIFS(Database!B:B,Database!A:A,B28) + SUMIFS(Database!E:E,Database!A:A,B28)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <f>SUMIFS(Database!B:B,Database!A:A,B28) + SUMIFS(Database!F:F,Database!A:A,B28)</f>
@@ -1429,7 +1737,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <f>SUMIFS(Database!B:B,Database!A:A,B31) + SUMIFS(Database!C:C,Database!A:A,B31)</f>
@@ -1437,11 +1745,11 @@
       </c>
       <c r="D31">
         <f>SUMIFS(Database!B:B,Database!A:A,B31) + SUMIFS(Database!D:D,Database!A:A,B31)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <f>SUMIFS(Database!B:B,Database!A:A,B31) + SUMIFS(Database!E:E,Database!A:A,B31)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <f>SUMIFS(Database!B:B,Database!A:A,B31) + SUMIFS(Database!F:F,Database!A:A,B31)</f>
@@ -1449,6 +1757,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F30">
+    <sortCondition descending="1" ref="F3:F30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1741,10 +2052,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604B8D48-E35D-4EA9-B265-884B43D093BD}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,9 +2065,11 @@
     <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1772,11 +2085,20 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1784,19 +2106,28 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1804,19 +2135,28 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1824,19 +2164,28 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1844,19 +2193,28 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1864,19 +2222,28 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1884,19 +2251,28 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1904,19 +2280,28 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1924,19 +2309,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1944,19 +2338,28 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1964,19 +2367,28 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1984,15 +2396,24 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
     </row>
@@ -2007,7 +2428,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2771,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,7 +3114,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="F1 G1 H1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,7 +3274,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -2882,7 +3303,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -3209,8 +3630,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,10 +4203,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE88F4-A443-4C4C-971E-2FD20B91EC67}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,11 +4217,14 @@
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
     <col min="11" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="20.5703125" customWidth="1"/>
+    <col min="16" max="16" width="34.28515625" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3820,529 +4244,1174 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <f>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!C:C,Database!A:A,K4)</f>
+        <v>210</v>
+      </c>
+      <c r="M4">
+        <f>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!D:D,Database!A:A,K4)</f>
+        <v>250</v>
+      </c>
+      <c r="N4">
+        <f>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!E:E,Database!A:A,K4)</f>
+        <v>210</v>
+      </c>
+      <c r="O4">
+        <f>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!F:F,Database!A:A,K4)</f>
+        <v>240</v>
+      </c>
+      <c r="P4">
+        <f>AVERAGE(L4,M4,N4)</f>
+        <v>223.33333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="F2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <f>SUMIFS(Database!B:B,Database!A:A,K5) + SUMIFS(Database!C:C,Database!A:A,K5)</f>
+        <v>190</v>
+      </c>
+      <c r="M5">
+        <f>SUMIFS(Database!B:B,Database!A:A,K5) + SUMIFS(Database!D:D,Database!A:A,K5)</f>
+        <v>260</v>
+      </c>
+      <c r="N5">
+        <f>SUMIFS(Database!B:B,Database!A:A,K5) + SUMIFS(Database!E:E,Database!A:A,K5)</f>
+        <v>200</v>
+      </c>
+      <c r="O5">
+        <f>SUMIFS(Database!B:B,Database!A:A,K4) + SUMIFS(Database!F:F,Database!A:A,K4)</f>
+        <v>240</v>
+      </c>
+      <c r="P5">
+        <f>AVERAGE(L5,M5,N5)</f>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6">
+        <f>SUMIFS(Database!B:B,Database!A:A,K6) + SUMIFS(Database!C:C,Database!A:A,K6)</f>
+        <v>180</v>
+      </c>
+      <c r="M6">
+        <f>SUMIFS(Database!B:B,Database!A:A,K6) + SUMIFS(Database!D:D,Database!A:A,K6)</f>
+        <v>160</v>
+      </c>
+      <c r="N6">
+        <f>SUMIFS(Database!B:B,Database!A:A,K6) + SUMIFS(Database!E:E,Database!A:A,K6)</f>
+        <v>250</v>
+      </c>
+      <c r="O6">
+        <f>SUMIFS(Database!B:B,Database!A:A,K6) + SUMIFS(Database!F:F,Database!A:A,K6)</f>
+        <v>230</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(L6,M6,N6)</f>
+        <v>196.66666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <f>SUMIFS(Database!B:B,Database!A:A,K7) + SUMIFS(Database!C:C,Database!A:A,K7)</f>
+        <v>210</v>
+      </c>
+      <c r="M7">
+        <f>SUMIFS(Database!B:B,Database!A:A,K7) + SUMIFS(Database!D:D,Database!A:A,K7)</f>
+        <v>140</v>
+      </c>
+      <c r="N7">
+        <f>SUMIFS(Database!B:B,Database!A:A,K7) + SUMIFS(Database!E:E,Database!A:A,K7)</f>
+        <v>160</v>
+      </c>
+      <c r="O7">
+        <f>SUMIFS(Database!B:B,Database!A:A,K7) + SUMIFS(Database!F:F,Database!A:A,K7)</f>
+        <v>210</v>
+      </c>
+      <c r="P7">
+        <f>AVERAGE(L7,M7,N7)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <f>SUMIFS(Database!B:B,Database!A:A,K8) + SUMIFS(Database!C:C,Database!A:A,K8)</f>
+        <v>170</v>
+      </c>
+      <c r="M8">
+        <f>SUMIFS(Database!B:B,Database!A:A,K8) + SUMIFS(Database!D:D,Database!A:A,K8)</f>
+        <v>210</v>
+      </c>
+      <c r="N8">
+        <f>SUMIFS(Database!B:B,Database!A:A,K8) + SUMIFS(Database!E:E,Database!A:A,K8)</f>
+        <v>130</v>
+      </c>
+      <c r="O8">
+        <f>SUMIFS(Database!B:B,Database!A:A,K8) + SUMIFS(Database!F:F,Database!A:A,K8)</f>
+        <v>200</v>
+      </c>
+      <c r="P8">
+        <f>AVERAGE(L8,M8,N8)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9">
+        <f>SUMIFS(Database!B:B,Database!A:A,K9) + SUMIFS(Database!C:C,Database!A:A,K9)</f>
+        <v>180</v>
+      </c>
+      <c r="M9">
+        <f>SUMIFS(Database!B:B,Database!A:A,K9) + SUMIFS(Database!D:D,Database!A:A,K9)</f>
+        <v>150</v>
+      </c>
+      <c r="N9">
+        <f>SUMIFS(Database!B:B,Database!A:A,K9) + SUMIFS(Database!E:E,Database!A:A,K9)</f>
+        <v>160</v>
+      </c>
+      <c r="O9">
+        <f>SUMIFS(Database!B:B,Database!A:A,K9) + SUMIFS(Database!F:F,Database!A:A,K9)</f>
+        <v>180</v>
+      </c>
+      <c r="P9">
+        <f>AVERAGE(L9,M9,N9)</f>
+        <v>163.33333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <f>SUMIFS(Database!B:B,Database!A:A,K10) + SUMIFS(Database!C:C,Database!A:A,K10)</f>
+        <v>170</v>
+      </c>
+      <c r="M10">
+        <f>SUMIFS(Database!B:B,Database!A:A,K10) + SUMIFS(Database!D:D,Database!A:A,K10)</f>
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <f>SUMIFS(Database!B:B,Database!A:A,K10) + SUMIFS(Database!E:E,Database!A:A,K10)</f>
+        <v>180</v>
+      </c>
+      <c r="O10">
+        <f>SUMIFS(Database!B:B,Database!A:A,K10) + SUMIFS(Database!F:F,Database!A:A,K10)</f>
+        <v>160</v>
+      </c>
+      <c r="P10">
+        <f>AVERAGE(L10,M10,N10)</f>
+        <v>146.66666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="J11">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <f>SUMIFS(Database!B:B,Database!A:A,K11) + SUMIFS(Database!C:C,Database!A:A,K11)</f>
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <f>SUMIFS(Database!B:B,Database!A:A,K11) + SUMIFS(Database!D:D,Database!A:A,K11)</f>
+        <v>110</v>
+      </c>
+      <c r="N11">
+        <f>SUMIFS(Database!B:B,Database!A:A,K11) + SUMIFS(Database!E:E,Database!A:A,K11)</f>
+        <v>150</v>
+      </c>
+      <c r="O11">
+        <f>SUMIFS(Database!B:B,Database!A:A,K11) + SUMIFS(Database!F:F,Database!A:A,K11)</f>
+        <v>120</v>
+      </c>
+      <c r="P11">
+        <f>AVERAGE(L11,M11,N11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>70</v>
+      </c>
+      <c r="J12">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>40</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <f>SUMIFS(Database!B:B,Database!A:A,K12) + SUMIFS(Database!C:C,Database!A:A,K12)</f>
+        <v>130</v>
+      </c>
+      <c r="M12">
+        <f>SUMIFS(Database!B:B,Database!A:A,K12) + SUMIFS(Database!D:D,Database!A:A,K12)</f>
+        <v>130</v>
+      </c>
+      <c r="N12">
+        <f>SUMIFS(Database!B:B,Database!A:A,K12) + SUMIFS(Database!E:E,Database!A:A,K12)</f>
+        <v>130</v>
+      </c>
+      <c r="O12">
+        <f>SUMIFS(Database!B:B,Database!A:A,K12) + SUMIFS(Database!F:F,Database!A:A,K12)</f>
+        <v>110</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(L12,M12,N12)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f>SUMIFS(Database!B:B,Database!A:A,K13) + SUMIFS(Database!C:C,Database!A:A,K13)</f>
+        <v>150</v>
+      </c>
+      <c r="M13">
+        <f>SUMIFS(Database!B:B,Database!A:A,K13) + SUMIFS(Database!D:D,Database!A:A,K13)</f>
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <f>SUMIFS(Database!B:B,Database!A:A,K13) + SUMIFS(Database!E:E,Database!A:A,K13)</f>
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <f>SUMIFS(Database!B:B,Database!A:A,K13) + SUMIFS(Database!F:F,Database!A:A,K13)</f>
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <f>AVERAGE(L13,M13,N13)</f>
+        <v>103.33333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>SUMIFS(Database!B:B,Database!A:A,K14) + SUMIFS(Database!C:C,Database!A:A,K14)</f>
+        <v>50</v>
+      </c>
+      <c r="M14">
+        <f>SUMIFS(Database!B:B,Database!A:A,K14) + SUMIFS(Database!D:D,Database!A:A,K14)</f>
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <f>SUMIFS(Database!B:B,Database!A:A,K14) + SUMIFS(Database!E:E,Database!A:A,K14)</f>
+        <v>90</v>
+      </c>
+      <c r="O14">
+        <f>SUMIFS(Database!B:B,Database!A:A,K14) + SUMIFS(Database!F:F,Database!A:A,K14)</f>
+        <v>90</v>
+      </c>
+      <c r="P14">
+        <f>AVERAGE(L14,M14,N14)</f>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <f>SUMIFS(Database!B:B,Database!A:A,K15) + SUMIFS(Database!C:C,Database!A:A,K15)</f>
+        <v>110</v>
+      </c>
+      <c r="M15">
+        <f>SUMIFS(Database!B:B,Database!A:A,K15) + SUMIFS(Database!D:D,Database!A:A,K15)</f>
+        <v>50</v>
+      </c>
+      <c r="N15">
+        <f>SUMIFS(Database!B:B,Database!A:A,K15) + SUMIFS(Database!E:E,Database!A:A,K15)</f>
+        <v>110</v>
+      </c>
+      <c r="O15">
+        <f>SUMIFS(Database!B:B,Database!A:A,K15) + SUMIFS(Database!F:F,Database!A:A,K15)</f>
+        <v>80</v>
+      </c>
+      <c r="P15">
+        <f>AVERAGE(L15,M15,N15)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <f>SUMIFS(Database!B:B,Database!A:A,K16) + SUMIFS(Database!C:C,Database!A:A,K16)</f>
+        <v>70</v>
+      </c>
+      <c r="M16">
+        <f>SUMIFS(Database!B:B,Database!A:A,K16) + SUMIFS(Database!D:D,Database!A:A,K16)</f>
+        <v>150</v>
+      </c>
+      <c r="N16">
+        <f>SUMIFS(Database!B:B,Database!A:A,K16) + SUMIFS(Database!E:E,Database!A:A,K16)</f>
+        <v>40</v>
+      </c>
+      <c r="O16">
+        <f>SUMIFS(Database!B:B,Database!A:A,K16) + SUMIFS(Database!F:F,Database!A:A,K16)</f>
+        <v>80</v>
+      </c>
+      <c r="P16">
+        <f>AVERAGE(L16,M16,N16)</f>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f>SUMIFS(Database!B:B,Database!A:A,K17) + SUMIFS(Database!C:C,Database!A:A,K17)</f>
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <f>SUMIFS(Database!B:B,Database!A:A,K17) + SUMIFS(Database!D:D,Database!A:A,K17)</f>
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <f>SUMIFS(Database!B:B,Database!A:A,K17) + SUMIFS(Database!E:E,Database!A:A,K17)</f>
+        <v>50</v>
+      </c>
+      <c r="O17">
+        <f>SUMIFS(Database!B:B,Database!A:A,K17) + SUMIFS(Database!F:F,Database!A:A,K17)</f>
+        <v>80</v>
+      </c>
+      <c r="P17">
+        <f>AVERAGE(L17,M17,N17)</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>70</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18">
+        <f>SUMIFS(Database!B:B,Database!A:A,K18) + SUMIFS(Database!C:C,Database!A:A,K18)</f>
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <f>SUMIFS(Database!B:B,Database!A:A,K18) + SUMIFS(Database!D:D,Database!A:A,K18)</f>
+        <v>90</v>
+      </c>
+      <c r="N18">
+        <f>SUMIFS(Database!B:B,Database!A:A,K18) + SUMIFS(Database!E:E,Database!A:A,K18)</f>
+        <v>40</v>
+      </c>
+      <c r="O18">
+        <f>SUMIFS(Database!B:B,Database!A:A,K18) + SUMIFS(Database!F:F,Database!A:A,K18)</f>
+        <v>80</v>
+      </c>
+      <c r="P18">
+        <f>AVERAGE(L18,M18,N18)</f>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+      <c r="J19">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19">
+        <f>SUMIFS(Database!B:B,Database!A:A,K19) + SUMIFS(Database!C:C,Database!A:A,K19)</f>
+        <v>120</v>
+      </c>
+      <c r="M19">
+        <f>SUMIFS(Database!B:B,Database!A:A,K19) + SUMIFS(Database!D:D,Database!A:A,K19)</f>
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <f>SUMIFS(Database!B:B,Database!A:A,K19) + SUMIFS(Database!E:E,Database!A:A,K19)</f>
+        <v>120</v>
+      </c>
+      <c r="O19">
+        <f>SUMIFS(Database!B:B,Database!A:A,K19) + SUMIFS(Database!F:F,Database!A:A,K19)</f>
+        <v>70</v>
+      </c>
+      <c r="P19">
+        <f>AVERAGE(L19,M19,N19)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <f>SUMIFS(Database!B:B,Database!A:A,K20) + SUMIFS(Database!C:C,Database!A:A,K20)</f>
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <f>SUMIFS(Database!B:B,Database!A:A,K20) + SUMIFS(Database!D:D,Database!A:A,K20)</f>
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <f>SUMIFS(Database!B:B,Database!A:A,K20) + SUMIFS(Database!E:E,Database!A:A,K20)</f>
+        <v>60</v>
+      </c>
+      <c r="O20">
+        <f>SUMIFS(Database!B:B,Database!A:A,K20) + SUMIFS(Database!F:F,Database!A:A,K20)</f>
+        <v>70</v>
+      </c>
+      <c r="P20">
+        <f>AVERAGE(L20,M20,N20)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <f>SUMIFS(Database!B:B,Database!A:A,K21) + SUMIFS(Database!C:C,Database!A:A,K21)</f>
+        <v>70</v>
+      </c>
+      <c r="M21">
+        <f>SUMIFS(Database!B:B,Database!A:A,K21) + SUMIFS(Database!D:D,Database!A:A,K21)</f>
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <f>SUMIFS(Database!B:B,Database!A:A,K21) + SUMIFS(Database!E:E,Database!A:A,K21)</f>
+        <v>70</v>
+      </c>
+      <c r="O21">
+        <f>SUMIFS(Database!B:B,Database!A:A,K21) + SUMIFS(Database!F:F,Database!A:A,K21)</f>
+        <v>70</v>
+      </c>
+      <c r="P21">
+        <f>AVERAGE(L21,M21,N21)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J22">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22">
+        <f>SUMIFS(Database!B:B,Database!A:A,K22) + SUMIFS(Database!C:C,Database!A:A,K22)</f>
+        <v>60</v>
+      </c>
+      <c r="M22">
+        <f>SUMIFS(Database!B:B,Database!A:A,K22) + SUMIFS(Database!D:D,Database!A:A,K22)</f>
+        <v>110</v>
+      </c>
+      <c r="N22">
+        <f>SUMIFS(Database!B:B,Database!A:A,K22) + SUMIFS(Database!E:E,Database!A:A,K22)</f>
+        <v>90</v>
+      </c>
+      <c r="O22">
+        <f>SUMIFS(Database!B:B,Database!A:A,K22) + SUMIFS(Database!F:F,Database!A:A,K22)</f>
+        <v>60</v>
+      </c>
+      <c r="P22">
+        <f>AVERAGE(L22,M22,N22)</f>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <f>SUMIFS(Database!B:B,Database!A:A,K23) + SUMIFS(Database!C:C,Database!A:A,K23)</f>
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <f>SUMIFS(Database!B:B,Database!A:A,K23) + SUMIFS(Database!D:D,Database!A:A,K23)</f>
+        <v>70</v>
+      </c>
+      <c r="N23">
+        <f>SUMIFS(Database!B:B,Database!A:A,K23) + SUMIFS(Database!E:E,Database!A:A,K23)</f>
+        <v>70</v>
+      </c>
+      <c r="O23">
+        <f>SUMIFS(Database!B:B,Database!A:A,K23) + SUMIFS(Database!F:F,Database!A:A,K23)</f>
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <f>AVERAGE(L23,M23,N23)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F24">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24">
+        <f>SUMIFS(Database!B:B,Database!A:A,K24) + SUMIFS(Database!C:C,Database!A:A,K24)</f>
+        <v>60</v>
+      </c>
+      <c r="M24">
+        <f>SUMIFS(Database!B:B,Database!A:A,K24) + SUMIFS(Database!D:D,Database!A:A,K24)</f>
+        <v>60</v>
+      </c>
+      <c r="N24">
+        <f>SUMIFS(Database!B:B,Database!A:A,K24) + SUMIFS(Database!E:E,Database!A:A,K24)</f>
+        <v>50</v>
+      </c>
+      <c r="O24">
+        <f>SUMIFS(Database!B:B,Database!A:A,K24) + SUMIFS(Database!F:F,Database!A:A,K24)</f>
+        <v>50</v>
+      </c>
+      <c r="P24">
+        <f>AVERAGE(L24,M24,N24)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <f>SUMIFS(Database!B:B,Database!A:A,K25) + SUMIFS(Database!C:C,Database!A:A,K25)</f>
+        <v>60</v>
+      </c>
+      <c r="M25">
+        <f>SUMIFS(Database!B:B,Database!A:A,K25) + SUMIFS(Database!D:D,Database!A:A,K25)</f>
+        <v>60</v>
+      </c>
+      <c r="N25">
+        <f>SUMIFS(Database!B:B,Database!A:A,K25) + SUMIFS(Database!E:E,Database!A:A,K25)</f>
+        <v>50</v>
+      </c>
+      <c r="O25">
+        <f>SUMIFS(Database!B:B,Database!A:A,K25) + SUMIFS(Database!F:F,Database!A:A,K25)</f>
+        <v>50</v>
+      </c>
+      <c r="P25">
+        <f>AVERAGE(L25,M25,N25)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J26">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <f>SUMIFS(Database!B:B,Database!A:A,K26) + SUMIFS(Database!C:C,Database!A:A,K26)</f>
+        <v>60</v>
+      </c>
+      <c r="M26">
+        <f>SUMIFS(Database!B:B,Database!A:A,K26) + SUMIFS(Database!D:D,Database!A:A,K26)</f>
+        <v>40</v>
+      </c>
+      <c r="N26">
+        <f>SUMIFS(Database!B:B,Database!A:A,K26) + SUMIFS(Database!E:E,Database!A:A,K26)</f>
+        <v>70</v>
+      </c>
+      <c r="O26">
+        <f>SUMIFS(Database!B:B,Database!A:A,K26) + SUMIFS(Database!F:F,Database!A:A,K26)</f>
+        <v>50</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGE(L26,M26,N26)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>10</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27">
+        <f>SUMIFS(Database!B:B,Database!A:A,K27) + SUMIFS(Database!C:C,Database!A:A,K27)</f>
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <f>SUMIFS(Database!B:B,Database!A:A,K27) + SUMIFS(Database!D:D,Database!A:A,K27)</f>
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <f>SUMIFS(Database!B:B,Database!A:A,K27) + SUMIFS(Database!E:E,Database!A:A,K27)</f>
+        <v>90</v>
+      </c>
+      <c r="O27">
+        <f>SUMIFS(Database!B:B,Database!A:A,K27) + SUMIFS(Database!F:F,Database!A:A,K27)</f>
+        <v>50</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGE(L27,M27,N27)</f>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -4359,16 +5428,42 @@
       <c r="F28">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <f>SUMIFS(Database!B:B,Database!A:A,K28) + SUMIFS(Database!C:C,Database!A:A,K28)</f>
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <f>SUMIFS(Database!B:B,Database!A:A,K28) + SUMIFS(Database!D:D,Database!A:A,K28)</f>
+        <v>60</v>
+      </c>
+      <c r="N28">
+        <f>SUMIFS(Database!B:B,Database!A:A,K28) + SUMIFS(Database!E:E,Database!A:A,K28)</f>
+        <v>10</v>
+      </c>
+      <c r="O28">
+        <f>SUMIFS(Database!B:B,Database!A:A,K28) + SUMIFS(Database!F:F,Database!A:A,K28)</f>
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <f>AVERAGE(L28,M28,N28)</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -4377,890 +5472,1824 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <f>SUMIFS(Database!B:B,Database!A:A,K29) + SUMIFS(Database!C:C,Database!A:A,K29)</f>
+        <v>10</v>
+      </c>
+      <c r="M29">
+        <f>SUMIFS(Database!B:B,Database!A:A,K29) + SUMIFS(Database!D:D,Database!A:A,K29)</f>
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <f>SUMIFS(Database!B:B,Database!A:A,K29) + SUMIFS(Database!E:E,Database!A:A,K29)</f>
+        <v>30</v>
+      </c>
+      <c r="O29">
+        <f>SUMIFS(Database!B:B,Database!A:A,K29) + SUMIFS(Database!F:F,Database!A:A,K29)</f>
+        <v>10</v>
+      </c>
+      <c r="P29">
+        <f>AVERAGE(L29,M29,N29)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F30">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="J30">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <f>SUMIFS(Database!B:B,Database!A:A,K30) + SUMIFS(Database!C:C,Database!A:A,K30)</f>
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <f>SUMIFS(Database!B:B,Database!A:A,K30) + SUMIFS(Database!D:D,Database!A:A,K30)</f>
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <f>SUMIFS(Database!B:B,Database!A:A,K30) + SUMIFS(Database!E:E,Database!A:A,K30)</f>
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <f>SUMIFS(Database!B:B,Database!A:A,K30) + SUMIFS(Database!F:F,Database!A:A,K30)</f>
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <f>AVERAGE(L30,M30,N30)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="J31">
+        <v>28</v>
+      </c>
+      <c r="K31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31">
+        <f>SUMIFS(Database!B:B,Database!A:A,K31) + SUMIFS(Database!C:C,Database!A:A,K31)</f>
+        <v>10</v>
+      </c>
+      <c r="M31">
+        <f>SUMIFS(Database!B:B,Database!A:A,K31) + SUMIFS(Database!D:D,Database!A:A,K31)</f>
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <f>SUMIFS(Database!B:B,Database!A:A,K31) + SUMIFS(Database!E:E,Database!A:A,K31)</f>
+        <v>20</v>
+      </c>
+      <c r="O31">
+        <f>SUMIFS(Database!B:B,Database!A:A,K31) + SUMIFS(Database!F:F,Database!A:A,K31)</f>
+        <v>10</v>
+      </c>
+      <c r="P31">
+        <f>AVERAGE(L31,M31,N31)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32">
+        <f>SUMIFS(Database!B:B,Database!A:A,K32) + SUMIFS(Database!C:C,Database!A:A,K32)</f>
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <f>SUMIFS(Database!B:B,Database!A:A,K32) + SUMIFS(Database!D:D,Database!A:A,K32)</f>
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <f>SUMIFS(Database!B:B,Database!A:A,K32) + SUMIFS(Database!E:E,Database!A:A,K32)</f>
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <f>SUMIFS(Database!B:B,Database!A:A,K32) + SUMIFS(Database!F:F,Database!A:A,K32)</f>
+        <v>10</v>
+      </c>
+      <c r="P32">
+        <f>AVERAGE(L32,M32,N32)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E33">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J33">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33">
+        <f>SUMIFS(Database!B:B,Database!A:A,K33) + SUMIFS(Database!C:C,Database!A:A,K33)</f>
+        <v>10</v>
+      </c>
+      <c r="M33">
+        <f>SUMIFS(Database!B:B,Database!A:A,K33) + SUMIFS(Database!D:D,Database!A:A,K33)</f>
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <f>SUMIFS(Database!B:B,Database!A:A,K33) + SUMIFS(Database!E:E,Database!A:A,K33)</f>
+        <v>10</v>
+      </c>
+      <c r="O33">
+        <f>SUMIFS(Database!B:B,Database!A:A,K33) + SUMIFS(Database!F:F,Database!A:A,K33)</f>
+        <v>10</v>
+      </c>
+      <c r="P33">
+        <f>AVERAGE(L33,M33,N33)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <v>50</v>
+      </c>
+      <c r="F37">
+        <v>50</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <f>AVERAGE(IFERROR(VLOOKUP($K38,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K38,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M38">
+        <f>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!D:D,Database!A:A,K38)</f>
+        <v>250</v>
+      </c>
+      <c r="N38">
+        <f>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!E:E,Database!A:A,K38)</f>
+        <v>210</v>
+      </c>
+      <c r="P38">
+        <f>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!F:F,Database!A:A,K38)</f>
+        <v>240</v>
+      </c>
+      <c r="Q38">
+        <f>AVERAGE(L4,M4,N4)</f>
+        <v>223.33333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39">
+        <f>AVERAGE(IFERROR(VLOOKUP($K39,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K39,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K39,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K39,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K39,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K39,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="M39">
+        <f>SUMIFS(Database!B:B,Database!A:A,K39) + SUMIFS(Database!D:D,Database!A:A,K39)</f>
+        <v>260</v>
+      </c>
+      <c r="N39">
+        <f>SUMIFS(Database!B:B,Database!A:A,K39) + SUMIFS(Database!E:E,Database!A:A,K39)</f>
+        <v>200</v>
+      </c>
+      <c r="P39">
+        <f>SUMIFS(Database!B:B,Database!A:A,K38) + SUMIFS(Database!F:F,Database!A:A,K38)</f>
+        <v>240</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39:Q67" si="0">AVERAGE(L5,M5,N5)</f>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K40,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K40,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K40,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K40,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K40,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K40,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40">
+        <f>SUMIFS(Database!B:B,Database!A:A,K40) + SUMIFS(Database!D:D,Database!A:A,K40)</f>
+        <v>160</v>
+      </c>
+      <c r="N40">
+        <f>SUMIFS(Database!B:B,Database!A:A,K40) + SUMIFS(Database!E:E,Database!A:A,K40)</f>
+        <v>250</v>
+      </c>
+      <c r="P40">
+        <f>SUMIFS(Database!B:B,Database!A:A,K40) + SUMIFS(Database!F:F,Database!A:A,K40)</f>
+        <v>230</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="0"/>
+        <v>196.66666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
         <v>38</v>
       </c>
-      <c r="C34">
-        <v>40</v>
-      </c>
-      <c r="D34">
-        <v>50</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>50</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K41,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K41,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K41,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K41,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K41,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K41,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41">
+        <f>SUMIFS(Database!B:B,Database!A:A,K41) + SUMIFS(Database!D:D,Database!A:A,K41)</f>
+        <v>140</v>
+      </c>
+      <c r="N41">
+        <f>SUMIFS(Database!B:B,Database!A:A,K41) + SUMIFS(Database!E:E,Database!A:A,K41)</f>
+        <v>160</v>
+      </c>
+      <c r="P41">
+        <f>SUMIFS(Database!B:B,Database!A:A,K41) + SUMIFS(Database!F:F,Database!A:A,K41)</f>
+        <v>210</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35">
-        <v>20</v>
-      </c>
-      <c r="D35">
-        <v>30</v>
-      </c>
-      <c r="E35">
-        <v>50</v>
-      </c>
-      <c r="F35">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>50</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <v>20</v>
-      </c>
-      <c r="E37">
-        <v>30</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>40</v>
-      </c>
-      <c r="E38">
-        <v>20</v>
-      </c>
-      <c r="F38">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>20</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>40</v>
-      </c>
-      <c r="E40">
-        <v>20</v>
-      </c>
-      <c r="F40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>40</v>
-      </c>
-      <c r="D41">
-        <v>20</v>
-      </c>
-      <c r="E41">
-        <v>70</v>
-      </c>
-      <c r="F41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>23</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F42">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L42" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K42,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K42,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K42,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K42,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K42,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K42,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42">
+        <f>SUMIFS(Database!B:B,Database!A:A,K42) + SUMIFS(Database!D:D,Database!A:A,K42)</f>
+        <v>210</v>
+      </c>
+      <c r="N42">
+        <f>SUMIFS(Database!B:B,Database!A:A,K42) + SUMIFS(Database!E:E,Database!A:A,K42)</f>
+        <v>130</v>
+      </c>
+      <c r="P42">
+        <f>SUMIFS(Database!B:B,Database!A:A,K42) + SUMIFS(Database!F:F,Database!A:A,K42)</f>
+        <v>200</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D43">
         <v>80</v>
       </c>
       <c r="E43">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K43,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K43,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K43,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K43,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K43,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K43,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43">
+        <f>SUMIFS(Database!B:B,Database!A:A,K43) + SUMIFS(Database!D:D,Database!A:A,K43)</f>
+        <v>150</v>
+      </c>
+      <c r="N43">
+        <f>SUMIFS(Database!B:B,Database!A:A,K43) + SUMIFS(Database!E:E,Database!A:A,K43)</f>
+        <v>160</v>
+      </c>
+      <c r="P43">
+        <f>SUMIFS(Database!B:B,Database!A:A,K43) + SUMIFS(Database!F:F,Database!A:A,K43)</f>
+        <v>180</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="0"/>
+        <v>163.33333333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F44">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K44,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K44,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K44,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K44,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K44,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K44,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44">
+        <f>SUMIFS(Database!B:B,Database!A:A,K44) + SUMIFS(Database!D:D,Database!A:A,K44)</f>
+        <v>90</v>
+      </c>
+      <c r="N44">
+        <f>SUMIFS(Database!B:B,Database!A:A,K44) + SUMIFS(Database!E:E,Database!A:A,K44)</f>
+        <v>180</v>
+      </c>
+      <c r="P44">
+        <f>SUMIFS(Database!B:B,Database!A:A,K44) + SUMIFS(Database!F:F,Database!A:A,K44)</f>
+        <v>160</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="0"/>
+        <v>146.66666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>39</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E45">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K45,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K45,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K45,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K45,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K45,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K45,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45">
+        <f>SUMIFS(Database!B:B,Database!A:A,K45) + SUMIFS(Database!D:D,Database!A:A,K45)</f>
+        <v>110</v>
+      </c>
+      <c r="N45">
+        <f>SUMIFS(Database!B:B,Database!A:A,K45) + SUMIFS(Database!E:E,Database!A:A,K45)</f>
+        <v>150</v>
+      </c>
+      <c r="P45">
+        <f>SUMIFS(Database!B:B,Database!A:A,K45) + SUMIFS(Database!F:F,Database!A:A,K45)</f>
+        <v>120</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K46,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K46,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K46,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K46,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K46,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K46,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46">
+        <f>SUMIFS(Database!B:B,Database!A:A,K46) + SUMIFS(Database!D:D,Database!A:A,K46)</f>
+        <v>130</v>
+      </c>
+      <c r="N46">
+        <f>SUMIFS(Database!B:B,Database!A:A,K46) + SUMIFS(Database!E:E,Database!A:A,K46)</f>
+        <v>130</v>
+      </c>
+      <c r="P46">
+        <f>SUMIFS(Database!B:B,Database!A:A,K46) + SUMIFS(Database!F:F,Database!A:A,K46)</f>
+        <v>110</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>40</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K47,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K47,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K47,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K47,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K47,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K47,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47">
+        <f>SUMIFS(Database!B:B,Database!A:A,K47) + SUMIFS(Database!D:D,Database!A:A,K47)</f>
+        <v>110</v>
+      </c>
+      <c r="N47">
+        <f>SUMIFS(Database!B:B,Database!A:A,K47) + SUMIFS(Database!E:E,Database!A:A,K47)</f>
+        <v>50</v>
+      </c>
+      <c r="P47">
+        <f>SUMIFS(Database!B:B,Database!A:A,K47) + SUMIFS(Database!F:F,Database!A:A,K47)</f>
+        <v>100</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="0"/>
+        <v>103.33333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>60</v>
+      </c>
+      <c r="E48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>50</v>
-      </c>
-      <c r="D46">
-        <v>70</v>
-      </c>
-      <c r="E46">
-        <v>80</v>
-      </c>
-      <c r="F46">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47">
-        <v>50</v>
-      </c>
-      <c r="D47">
-        <v>70</v>
-      </c>
-      <c r="E47">
-        <v>80</v>
-      </c>
-      <c r="F47">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48">
-        <v>30</v>
-      </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <v>40</v>
-      </c>
-      <c r="F48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K48,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K48,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K48,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K48,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K48,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K48,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48">
+        <f>SUMIFS(Database!B:B,Database!A:A,K48) + SUMIFS(Database!D:D,Database!A:A,K48)</f>
+        <v>110</v>
+      </c>
+      <c r="N48">
+        <f>SUMIFS(Database!B:B,Database!A:A,K48) + SUMIFS(Database!E:E,Database!A:A,K48)</f>
+        <v>90</v>
+      </c>
+      <c r="P48">
+        <f>SUMIFS(Database!B:B,Database!A:A,K48) + SUMIFS(Database!F:F,Database!A:A,K48)</f>
+        <v>90</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>60</v>
       </c>
       <c r="E49">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F49">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K49,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K49,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K49,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K49,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K49,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K49,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49">
+        <f>SUMIFS(Database!B:B,Database!A:A,K49) + SUMIFS(Database!D:D,Database!A:A,K49)</f>
+        <v>50</v>
+      </c>
+      <c r="N49">
+        <f>SUMIFS(Database!B:B,Database!A:A,K49) + SUMIFS(Database!E:E,Database!A:A,K49)</f>
+        <v>110</v>
+      </c>
+      <c r="P49">
+        <f>SUMIFS(Database!B:B,Database!A:A,K49) + SUMIFS(Database!F:F,Database!A:A,K49)</f>
+        <v>80</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C50">
+        <v>60</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
         <v>80</v>
       </c>
-      <c r="D50">
+      <c r="J50">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K50,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K50,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K50,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K50,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K50,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K50,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50">
+        <f>SUMIFS(Database!B:B,Database!A:A,K50) + SUMIFS(Database!D:D,Database!A:A,K50)</f>
+        <v>150</v>
+      </c>
+      <c r="N50">
+        <f>SUMIFS(Database!B:B,Database!A:A,K50) + SUMIFS(Database!E:E,Database!A:A,K50)</f>
+        <v>40</v>
+      </c>
+      <c r="P50">
+        <f>SUMIFS(Database!B:B,Database!A:A,K50) + SUMIFS(Database!F:F,Database!A:A,K50)</f>
         <v>80</v>
       </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-      <c r="F50">
+      <c r="Q50">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>40</v>
+      </c>
+      <c r="F51">
+        <v>40</v>
+      </c>
+      <c r="J51">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s">
+        <v>13</v>
+      </c>
+      <c r="L51" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K51,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K51,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K51,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K51,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K51,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K51,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51">
+        <f>SUMIFS(Database!B:B,Database!A:A,K51) + SUMIFS(Database!D:D,Database!A:A,K51)</f>
+        <v>90</v>
+      </c>
+      <c r="N51">
+        <f>SUMIFS(Database!B:B,Database!A:A,K51) + SUMIFS(Database!E:E,Database!A:A,K51)</f>
+        <v>50</v>
+      </c>
+      <c r="P51">
+        <f>SUMIFS(Database!B:B,Database!A:A,K51) + SUMIFS(Database!F:F,Database!A:A,K51)</f>
+        <v>80</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="0"/>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>40</v>
+      </c>
+      <c r="J52">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K52,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K52,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K52,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K52,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K52,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K52,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52">
+        <f>SUMIFS(Database!B:B,Database!A:A,K52) + SUMIFS(Database!D:D,Database!A:A,K52)</f>
+        <v>90</v>
+      </c>
+      <c r="N52">
+        <f>SUMIFS(Database!B:B,Database!A:A,K52) + SUMIFS(Database!E:E,Database!A:A,K52)</f>
+        <v>40</v>
+      </c>
+      <c r="P52">
+        <f>SUMIFS(Database!B:B,Database!A:A,K52) + SUMIFS(Database!F:F,Database!A:A,K52)</f>
+        <v>80</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="J53">
+        <v>16</v>
+      </c>
+      <c r="K53" t="s">
+        <v>26</v>
+      </c>
+      <c r="L53" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K53,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K53,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K53,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K53,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K53,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K53,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53">
+        <f>SUMIFS(Database!B:B,Database!A:A,K53) + SUMIFS(Database!D:D,Database!A:A,K53)</f>
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <f>SUMIFS(Database!B:B,Database!A:A,K53) + SUMIFS(Database!E:E,Database!A:A,K53)</f>
+        <v>120</v>
+      </c>
+      <c r="P53">
+        <f>SUMIFS(Database!B:B,Database!A:A,K53) + SUMIFS(Database!F:F,Database!A:A,K53)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51">
+      <c r="Q53">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K54,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K54,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K54,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K54,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K54,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K54,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54">
+        <f>SUMIFS(Database!B:B,Database!A:A,K54) + SUMIFS(Database!D:D,Database!A:A,K54)</f>
+        <v>50</v>
+      </c>
+      <c r="N54">
+        <f>SUMIFS(Database!B:B,Database!A:A,K54) + SUMIFS(Database!E:E,Database!A:A,K54)</f>
         <v>60</v>
       </c>
-      <c r="D51">
+      <c r="P54">
+        <f>SUMIFS(Database!B:B,Database!A:A,K54) + SUMIFS(Database!F:F,Database!A:A,K54)</f>
+        <v>70</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E51">
-        <v>50</v>
-      </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>40</v>
-      </c>
-      <c r="E52">
-        <v>30</v>
-      </c>
-      <c r="F52">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53">
-        <v>20</v>
-      </c>
-      <c r="D53">
-        <v>40</v>
-      </c>
-      <c r="E53">
-        <v>30</v>
-      </c>
-      <c r="F53">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>17</v>
-      </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <v>10</v>
-      </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>20</v>
       </c>
       <c r="B55" t="s">
         <v>39</v>
       </c>
       <c r="C55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K55,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K55,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K55,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K55,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K55,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K55,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55">
+        <f>SUMIFS(Database!B:B,Database!A:A,K55) + SUMIFS(Database!D:D,Database!A:A,K55)</f>
+        <v>40</v>
+      </c>
+      <c r="N55">
+        <f>SUMIFS(Database!B:B,Database!A:A,K55) + SUMIFS(Database!E:E,Database!A:A,K55)</f>
+        <v>70</v>
+      </c>
+      <c r="P55">
+        <f>SUMIFS(Database!B:B,Database!A:A,K55) + SUMIFS(Database!F:F,Database!A:A,K55)</f>
+        <v>70</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="J56">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K56,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K56,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K56,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K56,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K56,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K56,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56">
+        <f>SUMIFS(Database!B:B,Database!A:A,K56) + SUMIFS(Database!D:D,Database!A:A,K56)</f>
+        <v>110</v>
+      </c>
+      <c r="N56">
+        <f>SUMIFS(Database!B:B,Database!A:A,K56) + SUMIFS(Database!E:E,Database!A:A,K56)</f>
+        <v>90</v>
+      </c>
+      <c r="P56">
+        <f>SUMIFS(Database!B:B,Database!A:A,K56) + SUMIFS(Database!F:F,Database!A:A,K56)</f>
+        <v>60</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K57,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K57,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K57,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K57,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K57,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K57,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57">
+        <f>SUMIFS(Database!B:B,Database!A:A,K57) + SUMIFS(Database!D:D,Database!A:A,K57)</f>
+        <v>70</v>
+      </c>
+      <c r="N57">
+        <f>SUMIFS(Database!B:B,Database!A:A,K57) + SUMIFS(Database!E:E,Database!A:A,K57)</f>
+        <v>70</v>
+      </c>
+      <c r="P57">
+        <f>SUMIFS(Database!B:B,Database!A:A,K57) + SUMIFS(Database!F:F,Database!A:A,K57)</f>
+        <v>50</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>40</v>
+      </c>
+      <c r="J58">
         <v>21</v>
       </c>
-      <c r="B56" t="s">
+      <c r="K58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L58" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K58,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K58,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K58,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K58,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K58,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K58,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58">
+        <f>SUMIFS(Database!B:B,Database!A:A,K58) + SUMIFS(Database!D:D,Database!A:A,K58)</f>
+        <v>60</v>
+      </c>
+      <c r="N58">
+        <f>SUMIFS(Database!B:B,Database!A:A,K58) + SUMIFS(Database!E:E,Database!A:A,K58)</f>
+        <v>50</v>
+      </c>
+      <c r="P58">
+        <f>SUMIFS(Database!B:B,Database!A:A,K58) + SUMIFS(Database!F:F,Database!A:A,K58)</f>
+        <v>50</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>40</v>
+      </c>
+      <c r="J59">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>24</v>
+      </c>
+      <c r="L59" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K59,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K59,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K59,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K59,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K59,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K59,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59">
+        <f>SUMIFS(Database!B:B,Database!A:A,K59) + SUMIFS(Database!D:D,Database!A:A,K59)</f>
+        <v>60</v>
+      </c>
+      <c r="N59">
+        <f>SUMIFS(Database!B:B,Database!A:A,K59) + SUMIFS(Database!E:E,Database!A:A,K59)</f>
+        <v>50</v>
+      </c>
+      <c r="P59">
+        <f>SUMIFS(Database!B:B,Database!A:A,K59) + SUMIFS(Database!F:F,Database!A:A,K59)</f>
+        <v>50</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="J60">
+        <v>23</v>
+      </c>
+      <c r="K60" t="s">
+        <v>15</v>
+      </c>
+      <c r="L60" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K60,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K60,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K60,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K60,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K60,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K60,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60">
+        <f>SUMIFS(Database!B:B,Database!A:A,K60) + SUMIFS(Database!D:D,Database!A:A,K60)</f>
+        <v>40</v>
+      </c>
+      <c r="N60">
+        <f>SUMIFS(Database!B:B,Database!A:A,K60) + SUMIFS(Database!E:E,Database!A:A,K60)</f>
+        <v>70</v>
+      </c>
+      <c r="P60">
+        <f>SUMIFS(Database!B:B,Database!A:A,K60) + SUMIFS(Database!F:F,Database!A:A,K60)</f>
+        <v>50</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="0"/>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>50</v>
+      </c>
+      <c r="J61">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K61,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K61,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K61,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K61,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K61,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K61,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61">
+        <f>SUMIFS(Database!B:B,Database!A:A,K61) + SUMIFS(Database!D:D,Database!A:A,K61)</f>
+        <v>30</v>
+      </c>
+      <c r="N61">
+        <f>SUMIFS(Database!B:B,Database!A:A,K61) + SUMIFS(Database!E:E,Database!A:A,K61)</f>
+        <v>90</v>
+      </c>
+      <c r="P61">
+        <f>SUMIFS(Database!B:B,Database!A:A,K61) + SUMIFS(Database!F:F,Database!A:A,K61)</f>
+        <v>50</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>39</v>
       </c>
-      <c r="C56">
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K62,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K62,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K62,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K62,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K62,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K62,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62">
+        <f>SUMIFS(Database!B:B,Database!A:A,K62) + SUMIFS(Database!D:D,Database!A:A,K62)</f>
+        <v>60</v>
+      </c>
+      <c r="N62">
+        <f>SUMIFS(Database!B:B,Database!A:A,K62) + SUMIFS(Database!E:E,Database!A:A,K62)</f>
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <f>SUMIFS(Database!B:B,Database!A:A,K62) + SUMIFS(Database!F:F,Database!A:A,K62)</f>
+        <v>20</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+      <c r="D63">
         <v>70</v>
       </c>
-      <c r="D56">
-        <v>50</v>
-      </c>
-      <c r="E56">
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63">
+        <v>40</v>
+      </c>
+      <c r="J63">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K63,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K63,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K63,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K63,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K63,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K63,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M63">
+        <f>SUMIFS(Database!B:B,Database!A:A,K63) + SUMIFS(Database!D:D,Database!A:A,K63)</f>
+        <v>20</v>
+      </c>
+      <c r="N63">
+        <f>SUMIFS(Database!B:B,Database!A:A,K63) + SUMIFS(Database!E:E,Database!A:A,K63)</f>
+        <v>30</v>
+      </c>
+      <c r="P63">
+        <f>SUMIFS(Database!B:B,Database!A:A,K63) + SUMIFS(Database!F:F,Database!A:A,K63)</f>
+        <v>10</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>20</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+      <c r="J64">
+        <v>27</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K64,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K64,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K64,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K64,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K64,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K64,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64">
+        <f>SUMIFS(Database!B:B,Database!A:A,K64) + SUMIFS(Database!D:D,Database!A:A,K64)</f>
+        <v>10</v>
+      </c>
+      <c r="N64">
+        <f>SUMIFS(Database!B:B,Database!A:A,K64) + SUMIFS(Database!E:E,Database!A:A,K64)</f>
+        <v>20</v>
+      </c>
+      <c r="P64">
+        <f>SUMIFS(Database!B:B,Database!A:A,K64) + SUMIFS(Database!F:F,Database!A:A,K64)</f>
+        <v>10</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <v>28</v>
+      </c>
+      <c r="K65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K65,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K65,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K65,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K65,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K65,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K65,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65">
+        <f>SUMIFS(Database!B:B,Database!A:A,K65) + SUMIFS(Database!D:D,Database!A:A,K65)</f>
+        <v>20</v>
+      </c>
+      <c r="N65">
+        <f>SUMIFS(Database!B:B,Database!A:A,K65) + SUMIFS(Database!E:E,Database!A:A,K65)</f>
+        <v>20</v>
+      </c>
+      <c r="P65">
+        <f>SUMIFS(Database!B:B,Database!A:A,K65) + SUMIFS(Database!F:F,Database!A:A,K65)</f>
+        <v>10</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>29</v>
+      </c>
+      <c r="K66" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K66,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K66,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K66,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K66,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K66,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K66,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66">
+        <f>SUMIFS(Database!B:B,Database!A:A,K66) + SUMIFS(Database!D:D,Database!A:A,K66)</f>
+        <v>20</v>
+      </c>
+      <c r="N66">
+        <f>SUMIFS(Database!B:B,Database!A:A,K66) + SUMIFS(Database!E:E,Database!A:A,K66)</f>
+        <v>20</v>
+      </c>
+      <c r="P66">
+        <f>SUMIFS(Database!B:B,Database!A:A,K66) + SUMIFS(Database!F:F,Database!A:A,K66)</f>
+        <v>10</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="e">
+        <f>AVERAGE(IFERROR(VLOOKUP($K67,Olympiade_1!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K67,Olympiade_2!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K67,Olympiade_3!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K67,Olympiade_4!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K67,Olympiade_5!$B:$F,5,FALSE),""),IFERROR(VLOOKUP($K67,Olympiade_6!$B:$F,5,FALSE),""))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67">
+        <f>SUMIFS(Database!B:B,Database!A:A,K67) + SUMIFS(Database!D:D,Database!A:A,K67)</f>
+        <v>10</v>
+      </c>
+      <c r="N67">
+        <f>SUMIFS(Database!B:B,Database!A:A,K67) + SUMIFS(Database!E:E,Database!A:A,K67)</f>
+        <v>10</v>
+      </c>
+      <c r="P67">
+        <f>SUMIFS(Database!B:B,Database!A:A,K67) + SUMIFS(Database!F:F,Database!A:A,K67)</f>
+        <v>10</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>70</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>30</v>
+      </c>
+      <c r="E70">
+        <v>40</v>
+      </c>
+      <c r="F70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>40</v>
+      </c>
+      <c r="D71">
+        <v>30</v>
+      </c>
+      <c r="E71">
+        <v>90</v>
+      </c>
+      <c r="F71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+      <c r="F72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>70</v>
+      </c>
+      <c r="D73">
+        <v>50</v>
+      </c>
+      <c r="E73">
         <v>60</v>
       </c>
-      <c r="F56">
+      <c r="F73">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57">
-        <v>80</v>
-      </c>
-      <c r="D57">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>50</v>
-      </c>
-      <c r="F57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58">
-        <v>10</v>
-      </c>
-      <c r="D58">
-        <v>20</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59">
-        <v>70</v>
-      </c>
-      <c r="D59">
-        <v>40</v>
-      </c>
-      <c r="E59">
-        <v>70</v>
-      </c>
-      <c r="F59">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60">
-        <v>20</v>
-      </c>
-      <c r="D60">
-        <v>80</v>
-      </c>
-      <c r="E60">
-        <v>60</v>
-      </c>
-      <c r="F60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61">
-        <v>90</v>
-      </c>
-      <c r="D61">
-        <v>50</v>
-      </c>
-      <c r="E61">
-        <v>80</v>
-      </c>
-      <c r="F61">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>80</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <v>50</v>
-      </c>
-      <c r="F62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>70</v>
-      </c>
-      <c r="D63">
-        <v>40</v>
-      </c>
-      <c r="E63">
-        <v>70</v>
-      </c>
-      <c r="F63">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64">
-        <v>60</v>
-      </c>
-      <c r="D64">
-        <v>90</v>
-      </c>
-      <c r="E64">
-        <v>40</v>
-      </c>
-      <c r="F64">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>40</v>
-      </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
-        <v>90</v>
-      </c>
-      <c r="F65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>20</v>
-      </c>
-      <c r="D66">
-        <v>80</v>
-      </c>
-      <c r="E66">
-        <v>60</v>
-      </c>
-      <c r="F66">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>32</v>
-      </c>
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>20</v>
-      </c>
-      <c r="E67">
-        <v>20</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68">
-        <v>30</v>
-      </c>
-      <c r="D68">
-        <v>60</v>
-      </c>
-      <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69">
-        <v>30</v>
-      </c>
-      <c r="D69">
-        <v>60</v>
-      </c>
-      <c r="E69">
-        <v>10</v>
-      </c>
-      <c r="F69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70">
-        <v>60</v>
-      </c>
-      <c r="D70">
-        <v>90</v>
-      </c>
-      <c r="E70">
-        <v>40</v>
-      </c>
-      <c r="F70">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>50</v>
-      </c>
-      <c r="D71">
-        <v>70</v>
-      </c>
-      <c r="E71">
-        <v>30</v>
-      </c>
-      <c r="F71">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72">
-        <v>50</v>
-      </c>
-      <c r="D72">
-        <v>70</v>
-      </c>
-      <c r="E72">
-        <v>30</v>
-      </c>
-      <c r="F72">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
-      <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73">
-        <v>40</v>
-      </c>
-      <c r="D73">
-        <v>30</v>
-      </c>
-      <c r="E73">
-        <v>90</v>
-      </c>
-      <c r="F73">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -5286,552 +7315,606 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{634A4A22-0BF6-45CC-B5EE-AD2ADC565BF6}">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="21" width="17.85546875" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="3" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="16.42578125" customWidth="1"/>
+    <col min="24" max="24" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
       </c>
       <c r="D2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,2)</f>
         <v>1</v>
       </c>
       <c r="E2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F2">
         <f>SUM(C2,D2,E2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
       </c>
       <c r="H2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,2)</f>
+        <v>2</v>
       </c>
       <c r="I2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$G:$G,3)</f>
+        <v>2</v>
       </c>
       <c r="J2">
         <f>SUM(G2,H2,I2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,1)</f>
+        <v>3</v>
       </c>
       <c r="L2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
       </c>
       <c r="M2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N2">
         <f>SUM(K2,L2,M2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,1)</f>
+        <v>3</v>
       </c>
       <c r="P2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,2)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <f>SUM(O2,P2,R2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B2, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>SUM(O2,P2,Q2)</f>
         <v>4</v>
-      </c>
-      <c r="R2">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B2, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B2, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B2, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B2, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B2, Olympiade_6!$A:$A,3)</f>
-        <v>2</v>
       </c>
       <c r="S2">
         <f>SUM(C2,G2,K2,O2)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T2">
         <f>SUM(D2,H2,L2,P2)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <f>SUM(E2,I2,M2,R2)</f>
-        <v>3</v>
+        <f>SUM(E2,I2,M2,Q2)</f>
+        <v>2</v>
       </c>
       <c r="V2">
         <f>SUM(S2,T2,U2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="W2">
+        <f>SUMIFS(Database!B:B,Database!A:A,B2) + SUMIFS(Database!F:F,Database!A:A,B2)</f>
+        <v>240</v>
+      </c>
+      <c r="X2">
+        <f>AVERAGE(Database!L4,Database!M4,Database!N4)</f>
+        <v>223.33333333333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
       </c>
       <c r="D3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,2)</f>
         <v>1</v>
       </c>
       <c r="E3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F3">
         <f>SUM(C3,D3,E3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,2)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
       </c>
       <c r="I3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,3)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>SUM(G3,H3,I3)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
       </c>
       <c r="L3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
       </c>
       <c r="M3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N3">
         <f>SUM(K3,L3,M3)</f>
         <v>2</v>
       </c>
       <c r="O3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,1)</f>
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B3, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>SUM(O3,P3,Q3)</f>
         <v>3</v>
       </c>
-      <c r="P3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>SUM(O3,P3,R3)</f>
+      <c r="S3">
+        <f>SUM(C3,G3,K3,O3)</f>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <f>SUM(D3,H3,L3,P3)</f>
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <f>SUM(E3,I3,M3,Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <f>SUM(S3,T3,U3)</f>
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <f>SUMIFS(Database!B:B,Database!A:A,B3) + SUMIFS(Database!F:F,Database!A:A,B3)</f>
+        <v>210</v>
+      </c>
+      <c r="X3">
+        <f>AVERAGE(Database!L7,Database!M7,Database!N7)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,1)</f>
         <v>3</v>
       </c>
-      <c r="R3">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B3, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B3, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B3, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B3, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B3, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S31" si="0">SUM(C3,G3,K3,O3)</f>
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T31" si="1">SUM(D3,H3,L3,P3)</f>
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U31" si="2">SUM(E3,I3,M3,R3)</f>
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V31" si="3">SUM(S3,T3,U3)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,1)</f>
-        <v>0</v>
-      </c>
       <c r="D4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,3)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
       </c>
       <c r="F4">
         <f>SUM(C4,D4,E4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,2)</f>
         <v>1</v>
       </c>
       <c r="I4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$G:$G,3)</f>
         <v>1</v>
       </c>
       <c r="J4">
         <f>SUM(G4,H4,I4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,1)</f>
         <v>2</v>
       </c>
       <c r="L4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,2)</f>
         <v>1</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
       </c>
       <c r="N4">
         <f>SUM(K4,L4,M4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,1)</f>
         <v>2</v>
       </c>
       <c r="P4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <f>SUM(O4,P4,R4)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B4, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>SUM(O4,P4,Q4)</f>
         <v>3</v>
       </c>
-      <c r="R4">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B4, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B4, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B4, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B4, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B4, Olympiade_6!$A:$A,3)</f>
-        <v>1</v>
-      </c>
       <c r="S4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(C4,G4,K4,O4)</f>
+        <v>8</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(D4,H4,L4,P4)</f>
+        <v>3</v>
       </c>
       <c r="U4">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>SUM(E4,I4,M4,Q4)</f>
+        <v>1</v>
       </c>
       <c r="V4">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S4,T4,U4)</f>
+        <v>12</v>
+      </c>
+      <c r="W4">
+        <f>SUMIFS(Database!B:B,Database!A:A,B4) + SUMIFS(Database!F:F,Database!A:A,B4)</f>
+        <v>180</v>
+      </c>
+      <c r="X4">
+        <f>AVERAGE(Database!L9,Database!M9,Database!N9)</f>
+        <v>163.33333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$F:$F,3)</f>
+        <v>2</v>
       </c>
       <c r="F5">
         <f>SUM(C5,D5,E5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
       </c>
       <c r="I5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>SUM(G5,H5,I5)</f>
         <v>2</v>
       </c>
       <c r="K5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,1)</f>
+        <v>2</v>
       </c>
       <c r="L5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
       </c>
       <c r="M5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N5">
         <f>SUM(K5,L5,M5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,1)</f>
+        <v>2</v>
       </c>
       <c r="P5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,2)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>SUM(O5,P5,R5)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B5, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
       </c>
       <c r="R5">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B5, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B5, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B5, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B5, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B5, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O5,P5,Q5)</f>
+        <v>3</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C5,G5,K5,O5)</f>
+        <v>4</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(D5,H5,L5,P5)</f>
+        <v>2</v>
       </c>
       <c r="U5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E5,I5,M5,Q5)</f>
+        <v>5</v>
       </c>
       <c r="V5">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S5,T5,U5)</f>
+        <v>11</v>
+      </c>
+      <c r="W5">
+        <f>SUMIFS(Database!B:B,Database!A:A,B5) + SUMIFS(Database!F:F,Database!A:A,B5)</f>
+        <v>230</v>
+      </c>
+      <c r="X5">
+        <f>AVERAGE(Database!L6,Database!M6,Database!N6)</f>
+        <v>196.66666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,1)</f>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,2)</f>
         <v>1</v>
       </c>
       <c r="E6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F6">
         <f>SUM(C6,D6,E6)</f>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,1)</f>
         <v>3</v>
       </c>
-      <c r="G6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,1)</f>
-        <v>0</v>
-      </c>
       <c r="H6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
       </c>
       <c r="I6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J6">
         <f>SUM(G6,H6,I6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
       </c>
       <c r="L6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
       </c>
       <c r="M6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
       </c>
       <c r="N6">
         <f>SUM(K6,L6,M6)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,1)</f>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,2)</f>
+        <v>2</v>
       </c>
       <c r="Q6">
-        <f>SUM(O6,P6,R6)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B6, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f>SUM(O6,P6,Q6)</f>
         <v>3</v>
       </c>
-      <c r="R6">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B6, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B6, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B6, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B6, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B6, Olympiade_6!$A:$A,3)</f>
-        <v>1</v>
-      </c>
       <c r="S6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>SUM(C6,G6,K6,O6)</f>
+        <v>6</v>
       </c>
       <c r="T6">
-        <f t="shared" si="1"/>
+        <f>SUM(D6,H6,L6,P6)</f>
         <v>3</v>
       </c>
       <c r="U6">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(E6,I6,M6,Q6)</f>
+        <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="3"/>
+        <f>SUM(S6,T6,U6)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <f>SUMIFS(Database!B:B,Database!A:A,B6) + SUMIFS(Database!F:F,Database!A:A,B6)</f>
+        <v>200</v>
+      </c>
+      <c r="X6">
+        <f>AVERAGE(Database!L8,Database!M8,Database!N8)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
       <c r="C7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,1)</f>
         <v>2</v>
       </c>
       <c r="D7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F7">
@@ -5839,455 +7922,495 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
       </c>
       <c r="I7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$G:$G,3)</f>
         <v>1</v>
       </c>
       <c r="J7">
         <f>SUM(G7,H7,I7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
       </c>
       <c r="L7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,2)</f>
+        <v>3</v>
       </c>
       <c r="M7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N7">
         <f>SUM(K7,L7,M7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,1)</f>
         <v>1</v>
       </c>
       <c r="P7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,2)</f>
         <v>1</v>
       </c>
       <c r="Q7">
-        <f>SUM(O7,P7,R7)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B7, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
       </c>
       <c r="R7">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B7, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B7, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B7, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B7, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B7, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O7,P7,Q7)</f>
+        <v>2</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f>SUM(C7,G7,K7,O7)</f>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f>SUM(D7,H7,L7,P7)</f>
         <v>4</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
       <c r="U7">
-        <f t="shared" si="2"/>
+        <f>SUM(E7,I7,M7,Q7)</f>
         <v>1</v>
       </c>
       <c r="V7">
-        <f t="shared" si="3"/>
+        <f>SUM(S7,T7,U7)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <f>SUMIFS(Database!B:B,Database!A:A,B7) + SUMIFS(Database!F:F,Database!A:A,B7)</f>
+        <v>160</v>
+      </c>
+      <c r="X7">
+        <f>AVERAGE(Database!L10,Database!M10,Database!N10)</f>
+        <v>146.66666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
       </c>
       <c r="E8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F8">
         <f>SUM(C8,D8,E8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,2)</f>
+        <v>2</v>
       </c>
       <c r="I8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
       </c>
       <c r="J8">
         <f>SUM(G8,H8,I8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
       </c>
       <c r="L8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,2)</f>
-        <v>3</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
       </c>
       <c r="M8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N8">
         <f>SUM(K8,L8,M8)</f>
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B8, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>SUM(O8,P8,Q8)</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f>SUM(C8,G8,K8,O8)</f>
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <f>SUM(D8,H8,L8,P8)</f>
         <v>3</v>
       </c>
-      <c r="O8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,1)</f>
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f>SUM(O8,P8,R8)</f>
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B8, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B8, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B8, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B8, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B8, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="U8">
-        <f t="shared" si="2"/>
+        <f>SUM(E8,I8,M8,Q8)</f>
         <v>1</v>
       </c>
       <c r="V8">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S8,T8,U8)</f>
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <f>SUMIFS(Database!B:B,Database!A:A,B8) + SUMIFS(Database!F:F,Database!A:A,B8)</f>
+        <v>50</v>
+      </c>
+      <c r="X8">
+        <f>AVERAGE(Database!L23,Database!M23,Database!N23)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,1)</f>
+        <v>1</v>
       </c>
       <c r="D9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
       </c>
       <c r="E9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>SUM(C9,D9,E9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,1)</f>
+        <v>2</v>
       </c>
       <c r="H9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
       </c>
       <c r="I9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J9">
         <f>SUM(G9,H9,I9)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,1)</f>
         <v>1</v>
       </c>
       <c r="L9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
       </c>
       <c r="M9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N9">
         <f>SUM(K9,L9,M9)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,2)</f>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <f>SUM(O9,P9,R9)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B9, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,3)</f>
+        <v>2</v>
       </c>
       <c r="R9">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B9, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B9, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B9, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B9, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B9, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O9,P9,Q9)</f>
+        <v>4</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C9,G9,K9,O9)</f>
+        <v>4</v>
       </c>
       <c r="T9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(D9,H9,L9,P9)</f>
+        <v>5</v>
       </c>
       <c r="U9">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(E9,I9,M9,Q9)</f>
+        <v>3</v>
       </c>
       <c r="V9">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S9,T9,U9)</f>
+        <v>12</v>
+      </c>
+      <c r="W9">
+        <f>SUMIFS(Database!B:B,Database!A:A,B9) + SUMIFS(Database!F:F,Database!A:A,B9)</f>
+        <v>240</v>
+      </c>
+      <c r="X9">
+        <f>AVERAGE(Database!L5,Database!M5,Database!N5)</f>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,1)</f>
+        <v>1</v>
       </c>
       <c r="D10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,2)</f>
         <v>1</v>
       </c>
       <c r="E10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F10">
         <f>SUM(C10,D10,E10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,1)</f>
+        <v>2</v>
       </c>
       <c r="H10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
       </c>
       <c r="J10">
         <f>SUM(G10,H10,I10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
       </c>
       <c r="L10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,2)</f>
+        <v>0</v>
       </c>
       <c r="M10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
       </c>
       <c r="N10">
         <f>SUM(K10,L10,M10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,2)</f>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <f>SUM(O10,P10,R10)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B10, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
       </c>
       <c r="R10">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B10, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B10, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B10, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B10, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B10, Olympiade_6!$A:$A,3)</f>
-        <v>1</v>
+        <f>SUM(O10,P10,Q10)</f>
+        <v>2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C10,G10,K10,O10)</f>
+        <v>4</v>
       </c>
       <c r="T10">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(D10,H10,L10,P10)</f>
+        <v>3</v>
       </c>
       <c r="U10">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUM(E10,I10,M10,Q10)</f>
+        <v>0</v>
       </c>
       <c r="V10">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S10,T10,U10)</f>
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <f>SUMIFS(Database!B:B,Database!A:A,B10) + SUMIFS(Database!F:F,Database!A:A,B10)</f>
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <f>AVERAGE(Database!L17,Database!M17,Database!N17)</f>
+        <v>73.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,1)</f>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$F:$F,3)</f>
         <v>1</v>
       </c>
       <c r="F11">
         <f>SUM(C11,D11,E11)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,1)</f>
+        <v>2</v>
       </c>
       <c r="H11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J11">
         <f>SUM(G11,H11,I11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
       </c>
       <c r="N11">
         <f>SUM(K11,L11,M11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,2)</f>
         <v>1</v>
       </c>
       <c r="Q11">
-        <f>SUM(O11,P11,R11)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B11, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,3)</f>
         <v>1</v>
       </c>
       <c r="R11">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B11, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B11, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B11, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B11, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B11, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O11,P11,Q11)</f>
+        <v>2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>SUM(C11,G11,K11,O11)</f>
+        <v>2</v>
       </c>
       <c r="T11">
-        <f t="shared" si="1"/>
+        <f>SUM(D11,H11,L11,P11)</f>
         <v>1</v>
       </c>
       <c r="U11">
-        <f t="shared" si="2"/>
+        <f>SUM(E11,I11,M11,Q11)</f>
         <v>2</v>
       </c>
       <c r="V11">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S11,T11,U11)</f>
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <f>SUMIFS(Database!B:B,Database!A:A,B11) + SUMIFS(Database!F:F,Database!A:A,B11)</f>
+        <v>80</v>
+      </c>
+      <c r="X11">
+        <f>AVERAGE(Database!L16,Database!M16,Database!N16)</f>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
       </c>
       <c r="F12">
         <f>SUM(C12,D12,E12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
       </c>
       <c r="H12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
       </c>
       <c r="I12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J12">
@@ -6295,247 +8418,271 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
       </c>
       <c r="L12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N12">
         <f>SUM(K12,L12,M12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,2)</f>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <f>SUM(O12,P12,R12)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B12, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R12">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B12, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B12, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B12, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B12, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B12, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O12,P12,Q12)</f>
+        <v>1</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C12,G12,K12,O12)</f>
+        <v>2</v>
       </c>
       <c r="T12">
-        <f t="shared" si="1"/>
+        <f>SUM(D12,H12,L12,P12)</f>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E12,I12,M12,Q12)</f>
+        <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S12,T12,U12)</f>
+        <v>4</v>
+      </c>
+      <c r="W12">
+        <f>SUMIFS(Database!B:B,Database!A:A,B12) + SUMIFS(Database!F:F,Database!A:A,B12)</f>
+        <v>120</v>
+      </c>
+      <c r="X12">
+        <f>AVERAGE(Database!L11,Database!M11,Database!N11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,1)</f>
+        <v>2</v>
       </c>
       <c r="D13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
       </c>
       <c r="F13">
         <f>SUM(C13,D13,E13)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,1)</f>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
       </c>
       <c r="J13">
         <f>SUM(G13,H13,I13)</f>
         <v>1</v>
       </c>
       <c r="K13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
       </c>
       <c r="L13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N13">
         <f>SUM(K13,L13,M13)</f>
         <v>1</v>
       </c>
       <c r="O13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,2)</f>
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>SUM(O13,P13,R13)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B13, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
       </c>
       <c r="R13">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B13, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B13, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B13, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B13, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B13, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O13,P13,Q13)</f>
+        <v>1</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C13,G13,K13,O13)</f>
+        <v>3</v>
       </c>
       <c r="T13">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUM(D13,H13,L13,P13)</f>
+        <v>1</v>
       </c>
       <c r="U13">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(E13,I13,M13,Q13)</f>
+        <v>2</v>
       </c>
       <c r="V13">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S13,T13,U13)</f>
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <f>SUMIFS(Database!B:B,Database!A:A,B13) + SUMIFS(Database!F:F,Database!A:A,B13)</f>
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <f>AVERAGE(Database!L13,Database!M13,Database!N13)</f>
+        <v>103.33333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
       </c>
       <c r="E14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
       </c>
       <c r="F14">
         <f>SUM(C14,D14,E14)</f>
         <v>1</v>
       </c>
       <c r="G14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,1)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
       </c>
       <c r="H14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J14">
         <f>SUM(G14,H14,I14)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
       </c>
       <c r="L14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N14">
         <f>SUM(K14,L14,M14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,2)</f>
         <v>1</v>
       </c>
       <c r="Q14">
-        <f>SUM(O14,P14,R14)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B14, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
       </c>
       <c r="R14">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B14, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B14, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B14, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B14, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B14, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O14,P14,Q14)</f>
         <v>1</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C14,G14,K14,O14)</f>
+        <v>1</v>
       </c>
       <c r="T14">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(D14,H14,L14,P14)</f>
+        <v>2</v>
       </c>
       <c r="U14">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(E14,I14,M14,Q14)</f>
+        <v>1</v>
       </c>
       <c r="V14">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S14,T14,U14)</f>
+        <v>4</v>
+      </c>
+      <c r="W14">
+        <f>SUMIFS(Database!B:B,Database!A:A,B14) + SUMIFS(Database!F:F,Database!A:A,B14)</f>
+        <v>80</v>
+      </c>
+      <c r="X14">
+        <f>AVERAGE(Database!L15,Database!M15,Database!N15)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F15">
@@ -6543,15 +8690,15 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,1)</f>
         <v>1</v>
       </c>
       <c r="H15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J15">
@@ -6559,15 +8706,15 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N15">
@@ -6575,55 +8722,63 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,2)</f>
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>SUM(O15,P15,R15)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B15, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
       </c>
       <c r="R15">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B15, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B15, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B15, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B15, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B15, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O15,P15,Q15)</f>
+        <v>1</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f>SUM(C15,G15,K15,O15)</f>
         <v>1</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f>SUM(D15,H15,L15,P15)</f>
         <v>1</v>
       </c>
       <c r="U15">
-        <f t="shared" si="2"/>
+        <f>SUM(E15,I15,M15,Q15)</f>
         <v>0</v>
       </c>
       <c r="V15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S15,T15,U15)</f>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f>SUMIFS(Database!B:B,Database!A:A,B15) + SUMIFS(Database!F:F,Database!A:A,B15)</f>
+        <v>80</v>
+      </c>
+      <c r="X15">
+        <f>AVERAGE(Database!L18,Database!M18,Database!N18)</f>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,2)</f>
         <v>1</v>
       </c>
       <c r="E16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F16">
@@ -6631,87 +8786,95 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,1)</f>
+        <v>0</v>
       </c>
       <c r="H16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J16">
         <f>SUM(G16,H16,I16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N16">
         <f>SUM(K16,L16,M16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,2)</f>
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>SUM(O16,P16,R16)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B16, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,3)</f>
+        <v>0</v>
       </c>
       <c r="R16">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B16, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B16, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B16, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B16, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B16, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O16,P16,Q16)</f>
+        <v>1</v>
       </c>
       <c r="S16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C16,G16,K16,O16)</f>
+        <v>0</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
+        <f>SUM(D16,H16,L16,P16)</f>
         <v>2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E16,I16,M16,Q16)</f>
+        <v>1</v>
       </c>
       <c r="V16">
-        <f t="shared" si="3"/>
+        <f>SUM(S16,T16,U16)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <f>SUMIFS(Database!B:B,Database!A:A,B16) + SUMIFS(Database!F:F,Database!A:A,B16)</f>
+        <v>70</v>
+      </c>
+      <c r="X16">
+        <f>AVERAGE(Database!L20,Database!M20,Database!N20)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,2)</f>
         <v>1</v>
       </c>
       <c r="E17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F17">
@@ -6719,87 +8882,95 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J17">
         <f>SUM(G17,H17,I17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,2)</f>
         <v>1</v>
       </c>
       <c r="M17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N17">
         <f>SUM(K17,L17,M17)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f>SUM(O17,P17,R17)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B17, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
       </c>
       <c r="R17">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B17, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B17, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B17, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B17, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B17, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O17,P17,Q17)</f>
+        <v>1</v>
       </c>
       <c r="S17">
-        <f t="shared" si="0"/>
+        <f>SUM(C17,G17,K17,O17)</f>
         <v>0</v>
       </c>
       <c r="T17">
-        <f t="shared" si="1"/>
+        <f>SUM(D17,H17,L17,P17)</f>
         <v>2</v>
       </c>
       <c r="U17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E17,I17,M17,Q17)</f>
+        <v>3</v>
       </c>
       <c r="V17">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S17,T17,U17)</f>
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <f>SUMIFS(Database!B:B,Database!A:A,B17) + SUMIFS(Database!F:F,Database!A:A,B17)</f>
+        <v>110</v>
+      </c>
+      <c r="X17">
+        <f>AVERAGE(Database!L12,Database!M12,Database!N12)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$F:$F,3)</f>
         <v>1</v>
       </c>
       <c r="F18">
@@ -6807,31 +8978,31 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,2)</f>
+        <v>1</v>
       </c>
       <c r="I18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J18">
         <f>SUM(G18,H18,I18)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$H:$H,3)</f>
         <v>1</v>
       </c>
       <c r="N18">
@@ -6839,71 +9010,79 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f>SUM(O18,P18,R18)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B18, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,3)</f>
         <v>1</v>
       </c>
       <c r="R18">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B18, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B18, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B18, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B18, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B18, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O18,P18,Q18)</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f t="shared" si="0"/>
+        <f>SUM(C18,G18,K18,O18)</f>
         <v>0</v>
       </c>
       <c r="T18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D18,H18,L18,P18)</f>
+        <v>1</v>
       </c>
       <c r="U18">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUM(E18,I18,M18,Q18)</f>
+        <v>4</v>
       </c>
       <c r="V18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S18,T18,U18)</f>
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <f>SUMIFS(Database!B:B,Database!A:A,B18) + SUMIFS(Database!F:F,Database!A:A,B18)</f>
+        <v>90</v>
+      </c>
+      <c r="X18">
+        <f>AVERAGE(Database!L14,Database!M14,Database!N14)</f>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
       </c>
       <c r="E19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
       </c>
       <c r="F19">
         <f>SUM(C19,D19,E19)</f>
         <v>1</v>
       </c>
       <c r="G19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J19">
@@ -6911,15 +9090,15 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$H:$H,3)</f>
         <v>1</v>
       </c>
       <c r="N19">
@@ -6927,39 +9106,47 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f>SUM(O19,P19,R19)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B19, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,3)</f>
         <v>1</v>
       </c>
       <c r="R19">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B19, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B19, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B19, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B19, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B19, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O19,P19,Q19)</f>
         <v>1</v>
       </c>
       <c r="S19">
-        <f t="shared" si="0"/>
+        <f>SUM(C19,G19,K19,O19)</f>
         <v>0</v>
       </c>
       <c r="T19">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(D19,H19,L19,P19)</f>
+        <v>0</v>
       </c>
       <c r="U19">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(E19,I19,M19,Q19)</f>
+        <v>3</v>
       </c>
       <c r="V19">
-        <f t="shared" si="3"/>
+        <f>SUM(S19,T19,U19)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <f>SUMIFS(Database!B:B,Database!A:A,B19) + SUMIFS(Database!F:F,Database!A:A,B19)</f>
+        <v>70</v>
+      </c>
+      <c r="X19">
+        <f>AVERAGE(Database!L21,Database!M21,Database!N21)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6967,135 +9154,143 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
       </c>
       <c r="F20">
         <f>SUM(C20,D20,E20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,2)</f>
         <v>1</v>
       </c>
       <c r="I20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J20">
         <f>SUM(G20,H20,I20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$H:$H,3)</f>
+        <v>2</v>
       </c>
       <c r="N20">
         <f>SUM(K20,L20,M20)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f>SUM(O20,P20,R20)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B20, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,3)</f>
+        <v>1</v>
       </c>
       <c r="R20">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B20, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B20, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B20, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B20, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B20, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O20,P20,Q20)</f>
+        <v>1</v>
       </c>
       <c r="S20">
-        <f t="shared" si="0"/>
+        <f>SUM(C20,G20,K20,O20)</f>
         <v>0</v>
       </c>
       <c r="T20">
-        <f t="shared" si="1"/>
+        <f>SUM(D20,H20,L20,P20)</f>
         <v>1</v>
       </c>
       <c r="U20">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(E20,I20,M20,Q20)</f>
+        <v>5</v>
       </c>
       <c r="V20">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S20,T20,U20)</f>
+        <v>6</v>
+      </c>
+      <c r="W20">
+        <f>SUMIFS(Database!B:B,Database!A:A,B20) + SUMIFS(Database!F:F,Database!A:A,B20)</f>
+        <v>60</v>
+      </c>
+      <c r="X20">
+        <f>AVERAGE(Database!L22,Database!M22,Database!N22)</f>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,2)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,2)</f>
+        <v>0</v>
       </c>
       <c r="E21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$F:$F,3)</f>
+        <v>2</v>
       </c>
       <c r="F21">
         <f>SUM(C21,D21,E21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,2)</f>
-        <v>2</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,2)</f>
+        <v>0</v>
       </c>
       <c r="I21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J21">
         <f>SUM(G21,H21,I21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
       </c>
       <c r="L21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,2)</f>
+        <v>1</v>
       </c>
       <c r="M21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$H:$H,3)</f>
         <v>1</v>
       </c>
       <c r="N21">
@@ -7103,71 +9298,79 @@
         <v>2</v>
       </c>
       <c r="O21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,1)</f>
+        <v>0</v>
       </c>
       <c r="P21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f>SUM(O21,P21,R21)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B21, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,3)</f>
         <v>1</v>
       </c>
       <c r="R21">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B21, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B21, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B21, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B21, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B21, Olympiade_6!$A:$A,3)</f>
-        <v>0</v>
+        <f>SUM(O21,P21,Q21)</f>
+        <v>1</v>
       </c>
       <c r="S21">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUM(C21,G21,K21,O21)</f>
+        <v>0</v>
       </c>
       <c r="T21">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>SUM(D21,H21,L21,P21)</f>
+        <v>1</v>
       </c>
       <c r="U21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(E21,I21,M21,Q21)</f>
+        <v>5</v>
       </c>
       <c r="V21">
-        <f t="shared" si="3"/>
+        <f>SUM(S21,T21,U21)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <f>SUMIFS(Database!B:B,Database!A:A,B21) + SUMIFS(Database!F:F,Database!A:A,B21)</f>
+        <v>50</v>
+      </c>
+      <c r="X21">
+        <f>AVERAGE(Database!L26,Database!M26,Database!N26)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,2)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,2)</f>
+        <v>1</v>
       </c>
       <c r="E22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
       </c>
       <c r="F22">
         <f>SUM(C22,D22,E22)</f>
         <v>1</v>
       </c>
       <c r="G22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J22">
@@ -7175,15 +9378,15 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,2)</f>
         <v>1</v>
       </c>
       <c r="M22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N22">
@@ -7191,143 +9394,159 @@
         <v>1</v>
       </c>
       <c r="O22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f>SUM(O22,P22,R22)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B22, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R22">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B22, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B22, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B22, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B22, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B22, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O22,P22,Q22)</f>
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" si="0"/>
+        <f>SUM(C22,G22,K22,O22)</f>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(D22,H22,L22,P22)</f>
+        <v>2</v>
       </c>
       <c r="U22">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(E22,I22,M22,Q22)</f>
+        <v>0</v>
       </c>
       <c r="V22">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S22,T22,U22)</f>
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <f>SUMIFS(Database!B:B,Database!A:A,B22) + SUMIFS(Database!F:F,Database!A:A,B22)</f>
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <f>AVERAGE(Database!L19,Database!M19,Database!N19)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
       </c>
       <c r="F23">
         <f>SUM(C23,D23,E23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$G:$G,3)</f>
+        <v>1</v>
       </c>
       <c r="J23">
         <f>SUM(G23,H23,I23)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,1)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,1)</f>
+        <v>0</v>
       </c>
       <c r="L23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N23">
         <f>SUM(K23,L23,M23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f>SUM(O23,P23,R23)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B23, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R23">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B23, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B23, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B23, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B23, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B23, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O23,P23,Q23)</f>
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUM(C23,G23,K23,O23)</f>
+        <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="1"/>
+        <f>SUM(D23,H23,L23,P23)</f>
         <v>0</v>
       </c>
       <c r="U23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E23,I23,M23,Q23)</f>
+        <v>2</v>
       </c>
       <c r="V23">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S23,T23,U23)</f>
+        <v>2</v>
+      </c>
+      <c r="W23">
+        <f>SUMIFS(Database!B:B,Database!A:A,B23) + SUMIFS(Database!F:F,Database!A:A,B23)</f>
+        <v>50</v>
+      </c>
+      <c r="X23">
+        <f>AVERAGE(Database!L24,Database!M24,Database!N24)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$F:$F,3)</f>
         <v>1</v>
       </c>
       <c r="F24">
@@ -7335,15 +9554,15 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$G:$G,3)</f>
         <v>1</v>
       </c>
       <c r="J24">
@@ -7351,15 +9570,15 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N24">
@@ -7367,127 +9586,143 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f>SUM(O24,P24,R24)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B24, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R24">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B24, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B24, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B24, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B24, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B24, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O24,P24,Q24)</f>
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" si="0"/>
+        <f>SUM(C24,G24,K24,O24)</f>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="1"/>
+        <f>SUM(D24,H24,L24,P24)</f>
         <v>0</v>
       </c>
       <c r="U24">
-        <f t="shared" si="2"/>
+        <f>SUM(E24,I24,M24,Q24)</f>
         <v>2</v>
       </c>
       <c r="V24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S24,T24,U24)</f>
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <f>SUMIFS(Database!B:B,Database!A:A,B24) + SUMIFS(Database!F:F,Database!A:A,B24)</f>
+        <v>50</v>
+      </c>
+      <c r="X24">
+        <f>AVERAGE(Database!L25,Database!M25,Database!N25)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
       </c>
       <c r="F25">
         <f>SUM(C25,D25,E25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$G:$G,3)</f>
+        <v>0</v>
       </c>
       <c r="J25">
         <f>SUM(G25,H25,I25)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,1)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,1)</f>
+        <v>1</v>
       </c>
       <c r="L25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N25">
         <f>SUM(K25,L25,M25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f>SUM(O25,P25,R25)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B25, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R25">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B25, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B25, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B25, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B25, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B25, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O25,P25,Q25)</f>
         <v>0</v>
       </c>
       <c r="S25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C25,G25,K25,O25)</f>
+        <v>1</v>
       </c>
       <c r="T25">
-        <f t="shared" si="1"/>
+        <f>SUM(D25,H25,L25,P25)</f>
         <v>0</v>
       </c>
       <c r="U25">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(E25,I25,M25,Q25)</f>
+        <v>0</v>
       </c>
       <c r="V25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S25,T25,U25)</f>
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <f>SUMIFS(Database!B:B,Database!A:A,B25) + SUMIFS(Database!F:F,Database!A:A,B25)</f>
+        <v>50</v>
+      </c>
+      <c r="X25">
+        <f>AVERAGE(Database!L27,Database!M27,Database!N27)</f>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7495,15 +9730,15 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F26">
@@ -7511,15 +9746,15 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -7527,15 +9762,15 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N26">
@@ -7543,55 +9778,63 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f>SUM(O26,P26,R26)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B26, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R26">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B26, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B26, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B26, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B26, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B26, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O26,P26,Q26)</f>
         <v>0</v>
       </c>
       <c r="S26">
-        <f t="shared" si="0"/>
+        <f>SUM(C26,G26,K26,O26)</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <f t="shared" si="1"/>
+        <f>SUM(D26,H26,L26,P26)</f>
         <v>0</v>
       </c>
       <c r="U26">
-        <f t="shared" si="2"/>
+        <f>SUM(E26,I26,M26,Q26)</f>
         <v>0</v>
       </c>
       <c r="V26">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S26,T26,U26)</f>
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f>SUMIFS(Database!B:B,Database!A:A,B26) + SUMIFS(Database!F:F,Database!A:A,B26)</f>
+        <v>20</v>
+      </c>
+      <c r="X26">
+        <f>AVERAGE(Database!L28,Database!M28,Database!N28)</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F27">
@@ -7599,15 +9842,15 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J27">
@@ -7615,87 +9858,95 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N27">
         <f>SUM(K27,L27,M27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>SUM(O27,P27,R27)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B27, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B27, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B27, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B27, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B27, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B27, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O27,P27,Q27)</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f t="shared" si="0"/>
+        <f>SUM(C27,G27,K27,O27)</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f t="shared" si="1"/>
+        <f>SUM(D27,H27,L27,P27)</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E27,I27,M27,Q27)</f>
+        <v>1</v>
       </c>
       <c r="V27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S27,T27,U27)</f>
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <f>SUMIFS(Database!B:B,Database!A:A,B27) + SUMIFS(Database!F:F,Database!A:A,B27)</f>
+        <v>10</v>
+      </c>
+      <c r="X27">
+        <f>AVERAGE(Database!L29,Database!M29,Database!N29)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$F:$F,3)</f>
+        <v>1</v>
       </c>
       <c r="F28">
         <f>SUM(C28,D28,E28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J28">
@@ -7703,71 +9954,79 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,3)</f>
-        <v>0</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$H:$H,3)</f>
+        <v>1</v>
       </c>
       <c r="N28">
         <f>SUM(K28,L28,M28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>SUM(O28,P28,R28)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B28, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B28, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B28, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B28, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B28, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B28, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O28,P28,Q28)</f>
         <v>0</v>
       </c>
       <c r="S28">
-        <f t="shared" si="0"/>
+        <f>SUM(C28,G28,K28,O28)</f>
         <v>0</v>
       </c>
       <c r="T28">
-        <f t="shared" si="1"/>
+        <f>SUM(D28,H28,L28,P28)</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(E28,I28,M28,Q28)</f>
+        <v>2</v>
       </c>
       <c r="V28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S28,T28,U28)</f>
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <f>SUMIFS(Database!B:B,Database!A:A,B28) + SUMIFS(Database!F:F,Database!A:A,B28)</f>
+        <v>10</v>
+      </c>
+      <c r="X28">
+        <f>AVERAGE(Database!L30,Database!M30,Database!N30)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F29">
@@ -7775,15 +10034,15 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J29">
@@ -7791,15 +10050,15 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$H:$H,3)</f>
         <v>0</v>
       </c>
       <c r="N29">
@@ -7807,71 +10066,79 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q29">
-        <f>SUM(O29,P29,R29)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B29, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B29, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B29, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B29, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B29, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B29, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O29,P29,Q29)</f>
         <v>0</v>
       </c>
       <c r="S29">
-        <f t="shared" si="0"/>
+        <f>SUM(C29,G29,K29,O29)</f>
         <v>0</v>
       </c>
       <c r="T29">
-        <f t="shared" si="1"/>
+        <f>SUM(D29,H29,L29,P29)</f>
         <v>0</v>
       </c>
       <c r="U29">
-        <f t="shared" si="2"/>
+        <f>SUM(E29,I29,M29,Q29)</f>
         <v>0</v>
       </c>
       <c r="V29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S29,T29,U29)</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>SUMIFS(Database!B:B,Database!A:A,B29) + SUMIFS(Database!F:F,Database!A:A,B29)</f>
+        <v>10</v>
+      </c>
+      <c r="X29">
+        <f>AVERAGE(Database!L31,Database!M31,Database!N31)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$F:$F,3)</f>
+        <v>0</v>
       </c>
       <c r="F30">
         <f>SUM(C30,D30,E30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J30">
@@ -7879,71 +10146,79 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
       </c>
       <c r="N30">
         <f>SUM(K30,L30,M30)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q30">
-        <f>SUM(O30,P30,R30)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B30, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R30">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B30, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B30, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B30, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B30, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B30, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O30,P30,Q30)</f>
         <v>0</v>
       </c>
       <c r="S30">
-        <f t="shared" si="0"/>
+        <f>SUM(C30,G30,K30,O30)</f>
         <v>0</v>
       </c>
       <c r="T30">
-        <f t="shared" si="1"/>
+        <f>SUM(D30,H30,L30,P30)</f>
         <v>0</v>
       </c>
       <c r="U30">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(E30,I30,M30,Q30)</f>
+        <v>0</v>
       </c>
       <c r="V30">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <f>SUM(S30,T30,U30)</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f>SUMIFS(Database!B:B,Database!A:A,B30) + SUMIFS(Database!F:F,Database!A:A,B30)</f>
+        <v>10</v>
+      </c>
+      <c r="X30">
+        <f>AVERAGE(Database!L32,Database!M32,Database!N32)</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,1)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$F:$F,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,1)</f>
         <v>0</v>
       </c>
       <c r="D31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,2)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$F:$F,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,2)</f>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$F:$F,3)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$F:$F,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$F:$F,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$F:$F,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$F:$F,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$F:$F,3)</f>
         <v>0</v>
       </c>
       <c r="F31">
@@ -7951,15 +10226,15 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,1)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$G:$G,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,1)</f>
         <v>0</v>
       </c>
       <c r="H31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,2)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$G:$G,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,2)</f>
         <v>0</v>
       </c>
       <c r="I31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,3)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$G:$G,3)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$G:$G,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$G:$G,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$G:$G,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$G:$G,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$G:$G,3)</f>
         <v>0</v>
       </c>
       <c r="J31">
@@ -7967,55 +10242,66 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,1)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$H:$H,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,1)</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,2)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$H:$H,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,2)</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,3)</f>
-        <v>1</v>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$H:$H,3)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$H:$H,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$H:$H,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$H:$H,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$H:$H,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$H:$H,3)</f>
+        <v>0</v>
       </c>
       <c r="N31">
         <f>SUM(K31,L31,M31)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,1)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,1)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$A:$A,1)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,1)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,1)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,1)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,1)</f>
         <v>0</v>
       </c>
       <c r="P31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,2)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,2)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$A:$A,2)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,2)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,2)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,2)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,2)</f>
         <v>0</v>
       </c>
       <c r="Q31">
-        <f>SUM(O31,P31,R31)</f>
+        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_2!$B:$B, $B31, Olympiade_2!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,3)</f>
         <v>0</v>
       </c>
       <c r="R31">
-        <f>COUNTIFS(Olympiade_1!$B:$B, $B31, Olympiade_1!$A:$A,3)+COUNTIFS(Olympiade_3!$B:$B, $B31, Olympiade_3!$A:$A,3)+COUNTIFS(Olympiade_4!$B:$B, $B31, Olympiade_4!$A:$A,3)+COUNTIFS(Olympiade_5!$B:$B, $B31, Olympiade_5!$A:$A,3)+COUNTIFS(Olympiade_6!$B:$B, $B31, Olympiade_6!$A:$A,3)</f>
+        <f>SUM(O31,P31,Q31)</f>
         <v>0</v>
       </c>
       <c r="S31">
-        <f t="shared" si="0"/>
+        <f>SUM(C31,G31,K31,O31)</f>
         <v>0</v>
       </c>
       <c r="T31">
-        <f t="shared" si="1"/>
+        <f>SUM(D31,H31,L31,P31)</f>
         <v>0</v>
       </c>
       <c r="U31">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(E31,I31,M31,Q31)</f>
+        <v>0</v>
       </c>
       <c r="V31">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>SUM(S31,T31,U31)</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>SUMIFS(Database!B:B,Database!A:A,B31) + SUMIFS(Database!F:F,Database!A:A,B31)</f>
+        <v>10</v>
+      </c>
+      <c r="X31">
+        <f>AVERAGE(Database!L33,Database!M33,Database!N33)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>